--- a/config_9.8/permission_server_config.xlsx
+++ b/config_9.8/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3689" uniqueCount="1657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="1669">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -5013,10 +5013,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>jjddz_official</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>tag_type</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7288,6 +7284,23 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>actp_buy_gift_bag_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10290</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>免费福利券（免费，小额玩家，非新玩家）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7409,20 +7422,51 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>actp_buy_gift_bag_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10290</t>
-    </r>
+    <t>gfpt_tgxt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_plat_normal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_plat_normal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"normal",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼官方渠道</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjddz_official</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广系统（官方渠道才显示）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是官方渠道</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7430,11 +7474,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>免费话费（免费、小额玩家）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>2020年9月14日23:59:59结束</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费话费（免费、小额玩家）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8165,11 +8213,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q374"/>
+  <dimension ref="A1:Q376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B386" sqref="B386"/>
+      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B376" sqref="B376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9696,7 +9744,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="27" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B98" s="27" t="s">
         <v>185</v>
@@ -10119,7 +10167,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="53" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B142" s="53" t="s">
         <v>262</v>
@@ -10240,10 +10288,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="61" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C154" s="14">
         <v>267</v>
@@ -10251,10 +10299,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="61" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C155" s="14">
         <v>268</v>
@@ -10262,10 +10310,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="61" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C156" s="14">
         <v>269</v>
@@ -10273,10 +10321,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="61" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C157" s="14">
         <v>270</v>
@@ -10284,10 +10332,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="61" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C158" s="14">
         <v>271</v>
@@ -10295,10 +10343,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="61" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C159" s="14">
         <v>272</v>
@@ -10306,10 +10354,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="61" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C160" s="14">
         <v>273</v>
@@ -10317,10 +10365,10 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="61" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C161" s="14">
         <v>274</v>
@@ -10328,10 +10376,10 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="61" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C162" s="14">
         <v>275</v>
@@ -10339,10 +10387,10 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="61" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C163" s="14">
         <v>276</v>
@@ -10350,10 +10398,10 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="61" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C164" s="14">
         <v>277</v>
@@ -10361,10 +10409,10 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="61" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C165" s="14">
         <v>278</v>
@@ -10372,10 +10420,10 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="61" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C166" s="14">
         <v>279</v>
@@ -10706,7 +10754,7 @@
     </row>
     <row r="200" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="60" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B200" s="60" t="s">
         <v>341</v>
@@ -10736,7 +10784,7 @@
     </row>
     <row r="202" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="34" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B202" s="34" t="s">
         <v>346</v>
@@ -10751,7 +10799,7 @@
     </row>
     <row r="203" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="34" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B203" s="34" t="s">
         <v>348</v>
@@ -10766,10 +10814,10 @@
     </row>
     <row r="204" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="60" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B204" s="60" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C204" s="61">
         <v>81</v>
@@ -11020,7 +11068,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>388</v>
@@ -11347,7 +11395,7 @@
         <v>443</v>
       </c>
       <c r="B263" s="34" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C263" s="18">
         <v>149</v>
@@ -11518,58 +11566,58 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B288" s="27" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="27" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B289" s="27" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="27" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B290" s="27" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="27" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B291" s="27" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="27" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B292" s="27" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="27" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B293" s="27" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="27" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B294" s="27" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C294" s="3">
         <v>22</v>
@@ -11577,10 +11625,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="27" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B295" s="27" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C295" s="3">
         <v>23</v>
@@ -11588,10 +11636,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="27" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B296" s="27" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C296" s="3">
         <v>24</v>
@@ -11599,10 +11647,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="27" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B297" s="27" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C297" s="3">
         <v>25</v>
@@ -11610,10 +11658,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="27" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B298" s="27" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C298" s="3">
         <v>26</v>
@@ -11621,10 +11669,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="27" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B300" s="27" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C300" s="9">
         <v>177</v>
@@ -11632,10 +11680,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B302" s="3" t="s">
         <v>1292</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>1293</v>
       </c>
       <c r="C302" s="3">
         <v>192</v>
@@ -11643,10 +11691,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B303" s="3" t="s">
         <v>1294</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>1295</v>
       </c>
       <c r="C303" s="3">
         <v>197</v>
@@ -11654,10 +11702,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="27" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B305" s="27" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C305" s="3">
         <v>204</v>
@@ -11665,10 +11713,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="27" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B306" s="27" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C306" s="3">
         <v>205</v>
@@ -11676,10 +11724,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="27" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B307" s="27" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C307" s="3">
         <v>206</v>
@@ -11687,10 +11735,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="27" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B308" s="27" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C308" s="3">
         <v>207</v>
@@ -11698,10 +11746,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="27" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B309" s="27" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C309" s="3">
         <v>208</v>
@@ -11709,10 +11757,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="27" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B310" s="27" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C310" s="3">
         <v>209</v>
@@ -11720,10 +11768,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="27" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B311" s="27" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C311" s="3">
         <v>210</v>
@@ -11731,10 +11779,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="27" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B312" s="27" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C312" s="3">
         <v>211</v>
@@ -11742,10 +11790,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="27" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B313" s="27" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C313" s="3">
         <v>212</v>
@@ -11753,10 +11801,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="27" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B314" s="27" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C314" s="3">
         <v>213</v>
@@ -11764,10 +11812,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="27" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B315" s="27" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C315" s="3">
         <v>214</v>
@@ -11779,10 +11827,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="27" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B317" s="27" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C317" s="3">
         <v>215</v>
@@ -11790,10 +11838,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="27" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B318" s="27" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C318" s="3">
         <v>216</v>
@@ -11801,10 +11849,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="27" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B319" s="27" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C319" s="3">
         <v>217</v>
@@ -11812,10 +11860,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="27" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B320" s="27" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C320" s="3">
         <v>218</v>
@@ -11823,10 +11871,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="27" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B321" s="27" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C321" s="3">
         <v>219</v>
@@ -11834,10 +11882,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="27" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B322" s="27" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C322" s="3">
         <v>220</v>
@@ -11845,10 +11893,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="27" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B323" s="27" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C323" s="3">
         <v>221</v>
@@ -11856,10 +11904,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="27" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B324" s="27" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C324" s="3">
         <v>222</v>
@@ -11867,10 +11915,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="27" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B325" s="27" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C325" s="3">
         <v>223</v>
@@ -11878,10 +11926,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="27" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B326" s="27" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C326" s="3">
         <v>224</v>
@@ -11889,10 +11937,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="27" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B327" s="27" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C327" s="3">
         <v>225</v>
@@ -11903,10 +11951,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="27" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B329" s="27" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C329" s="54">
         <v>249</v>
@@ -11914,91 +11962,91 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="27" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B330" s="27" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C330" s="54"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="27" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B331" s="27" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="27" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B332" s="27" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="27" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B333" s="27" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="27" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B334" s="27" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="27" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B335" s="27" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="27" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B336" s="27" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="27" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B337" s="27" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="27" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B338" s="27" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="27" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B339" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="27" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B341" s="27" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C341" s="54">
         <v>24</v>
@@ -12006,91 +12054,91 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="27" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B342" s="27" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C342" s="54"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="27" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B343" s="27" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="27" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B344" s="27" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="27" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B345" s="27" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="27" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B346" s="27" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="27" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B347" s="27" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="27" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B348" s="27" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="27" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B349" s="27" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="27" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B350" s="27" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="27" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B351" s="27" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C353" s="3">
         <v>226</v>
@@ -12098,10 +12146,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="27" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B354" s="27" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C354" s="3">
         <v>227</v>
@@ -12109,10 +12157,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="27" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B355" s="27" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C355" s="3">
         <v>228</v>
@@ -12120,10 +12168,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B356" s="27" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C356" s="3">
         <v>229</v>
@@ -12131,10 +12179,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="27" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B357" s="27" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C357" s="3">
         <v>230</v>
@@ -12142,10 +12190,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="27" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B358" s="27" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C358" s="3">
         <v>231</v>
@@ -12153,10 +12201,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="27" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B360" s="27" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C360" s="3">
         <v>91</v>
@@ -12164,10 +12212,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="27" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B362" s="34" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C362" s="3">
         <v>242</v>
@@ -12175,10 +12223,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="27" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B363" s="27" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C363" s="3">
         <v>243</v>
@@ -12186,10 +12234,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="27" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B364" s="27" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C364" s="3">
         <v>244</v>
@@ -12197,10 +12245,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B367" s="3" t="s">
         <v>1530</v>
-      </c>
-      <c r="B367" s="3" t="s">
-        <v>1531</v>
       </c>
       <c r="C367" s="3">
         <v>248</v>
@@ -12208,10 +12256,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="27" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B369" s="27" t="s">
         <v>1557</v>
-      </c>
-      <c r="B369" s="27" t="s">
-        <v>1558</v>
       </c>
       <c r="C369" s="3">
         <v>256</v>
@@ -12219,10 +12267,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B370" s="3" t="s">
         <v>1559</v>
-      </c>
-      <c r="B370" s="3" t="s">
-        <v>1560</v>
       </c>
       <c r="C370" s="3">
         <v>257</v>
@@ -12230,10 +12278,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="27" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B372" s="27" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C372" s="3">
         <v>258</v>
@@ -12241,13 +12289,24 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B374" s="3" t="s">
         <v>1586</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>1587</v>
       </c>
       <c r="C374" s="3">
         <v>266</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" s="27" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B376" s="27" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C376" s="3">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -12262,10 +12321,10 @@
   <dimension ref="A1:O284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D257" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E257" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D287" sqref="D287"/>
+      <selection pane="bottomRight" activeCell="H286" sqref="H286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12316,7 +12375,7 @@
         <v>478</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>479</v>
@@ -12380,7 +12439,7 @@
         <v>486</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -12406,7 +12465,7 @@
         <v>488</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="O3" s="17"/>
     </row>
@@ -12444,10 +12503,10 @@
         <v>1066</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -12540,7 +12599,7 @@
         <v>498</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -12580,7 +12639,7 @@
         <v>502</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
@@ -12606,7 +12665,7 @@
         <v>504</v>
       </c>
       <c r="N8" s="38" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -12620,7 +12679,7 @@
         <v>505</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -12660,7 +12719,7 @@
         <v>508</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
@@ -12696,7 +12755,7 @@
         <v>509</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
@@ -12732,7 +12791,7 @@
         <v>511</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
@@ -12768,7 +12827,7 @@
         <v>512</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
@@ -12804,7 +12863,7 @@
         <v>513</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
@@ -12840,7 +12899,7 @@
         <v>515</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
@@ -12876,7 +12935,7 @@
         <v>516</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
@@ -12912,7 +12971,7 @@
         <v>517</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -12948,7 +13007,7 @@
         <v>519</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
@@ -12984,7 +13043,7 @@
         <v>520</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
@@ -13089,7 +13148,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>522</v>
@@ -13125,10 +13184,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
@@ -13161,10 +13220,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
@@ -13197,10 +13256,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
@@ -16413,7 +16472,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D120" s="16" t="s">
         <v>522</v>
@@ -17161,10 +17220,10 @@
         <v>0</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E142" s="17"/>
       <c r="F142" s="17"/>
@@ -17365,7 +17424,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>728</v>
@@ -17907,7 +17966,7 @@
         <v>0</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D164" s="15" t="s">
         <v>764</v>
@@ -18145,7 +18204,7 @@
         <v>1</v>
       </c>
       <c r="C171" s="29" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D171" s="29" t="s">
         <v>779</v>
@@ -18511,7 +18570,7 @@
         <v>1590449400</v>
       </c>
       <c r="L181" s="29" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="182" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -18559,7 +18618,7 @@
         <v>806</v>
       </c>
       <c r="D183" s="70" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E183" s="69"/>
       <c r="F183" s="69"/>
@@ -18579,7 +18638,7 @@
         <v>1591054200</v>
       </c>
       <c r="L183" s="70" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="184" spans="1:13" s="71" customFormat="1" x14ac:dyDescent="0.2">
@@ -18593,7 +18652,7 @@
         <v>807</v>
       </c>
       <c r="D184" s="70" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E184" s="69"/>
       <c r="F184" s="69"/>
@@ -18613,7 +18672,7 @@
         <v>1591054200</v>
       </c>
       <c r="L184" s="70" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="185" spans="1:13" s="71" customFormat="1" x14ac:dyDescent="0.2">
@@ -18627,7 +18686,7 @@
         <v>808</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E185" s="69"/>
       <c r="F185" s="69"/>
@@ -18647,7 +18706,7 @@
         <v>1591054200</v>
       </c>
       <c r="L185" s="70" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="186" spans="1:13" s="71" customFormat="1" x14ac:dyDescent="0.2">
@@ -18661,7 +18720,7 @@
         <v>809</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E186" s="69"/>
       <c r="F186" s="69"/>
@@ -18681,7 +18740,7 @@
         <v>1591054200</v>
       </c>
       <c r="L186" s="70" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="187" spans="1:13" s="71" customFormat="1" x14ac:dyDescent="0.2">
@@ -18695,7 +18754,7 @@
         <v>810</v>
       </c>
       <c r="D187" s="70" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E187" s="69"/>
       <c r="F187" s="69"/>
@@ -18715,7 +18774,7 @@
         <v>1591054200</v>
       </c>
       <c r="L187" s="70" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="188" spans="1:13" s="71" customFormat="1" x14ac:dyDescent="0.2">
@@ -18729,7 +18788,7 @@
         <v>811</v>
       </c>
       <c r="D188" s="62" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E188" s="69"/>
       <c r="F188" s="69"/>
@@ -18749,7 +18808,7 @@
         <v>1591054200</v>
       </c>
       <c r="L188" s="70" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
@@ -18998,7 +19057,7 @@
         <v>0</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D196" s="30" t="s">
         <v>828</v>
@@ -19387,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D208" s="30" t="s">
         <v>843</v>
@@ -19894,7 +19953,7 @@
         <v>871</v>
       </c>
       <c r="D223" s="30" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G223" s="26">
         <v>171</v>
@@ -19923,10 +19982,10 @@
         <v>0</v>
       </c>
       <c r="C224" s="30" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D224" s="30" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G224" s="26">
         <v>170</v>
@@ -19955,10 +20014,10 @@
         <v>0</v>
       </c>
       <c r="C225" s="29" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D225" s="29" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E225" s="28"/>
       <c r="F225" s="28"/>
@@ -19972,13 +20031,13 @@
         <v>1</v>
       </c>
       <c r="J225" s="29" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K225" s="28">
         <v>1591054200</v>
       </c>
       <c r="L225" s="29" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="226" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -19989,10 +20048,10 @@
         <v>1</v>
       </c>
       <c r="C226" s="79" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D226" s="78" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E226" s="78"/>
       <c r="F226" s="78"/>
@@ -20006,13 +20065,13 @@
         <v>1</v>
       </c>
       <c r="J226" s="78" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="K226" s="78">
         <v>1592263800</v>
       </c>
       <c r="L226" s="79" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="227" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.2">
@@ -20023,10 +20082,10 @@
         <v>0</v>
       </c>
       <c r="C227" s="86" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D227" s="86" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E227" s="85"/>
       <c r="F227" s="85"/>
@@ -20046,7 +20105,7 @@
         <v>1591632000</v>
       </c>
       <c r="L227" s="86" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="228" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
@@ -20057,10 +20116,10 @@
         <v>0</v>
       </c>
       <c r="C228" s="73" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D228" s="73" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E228" s="72"/>
       <c r="F228" s="72"/>
@@ -20074,13 +20133,13 @@
         <v>1</v>
       </c>
       <c r="J228" s="73" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="K228" s="72">
         <v>1591632000</v>
       </c>
       <c r="L228" s="73" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="229" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -20091,10 +20150,10 @@
         <v>0</v>
       </c>
       <c r="C229" s="29" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D229" s="29" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E229" s="28"/>
       <c r="F229" s="28"/>
@@ -20114,7 +20173,7 @@
         <v>1591632000</v>
       </c>
       <c r="L229" s="28" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="230" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
@@ -20125,10 +20184,10 @@
         <v>0</v>
       </c>
       <c r="C230" s="82" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D230" s="82" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E230" s="81"/>
       <c r="F230" s="81"/>
@@ -20142,13 +20201,13 @@
         <v>1</v>
       </c>
       <c r="J230" s="82" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="K230" s="81">
         <v>1591632000</v>
       </c>
       <c r="L230" s="82" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="231" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -20159,10 +20218,10 @@
         <v>0</v>
       </c>
       <c r="C231" s="79" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D231" s="79" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E231" s="78"/>
       <c r="F231" s="78"/>
@@ -20176,13 +20235,13 @@
         <v>1</v>
       </c>
       <c r="J231" s="79" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="K231" s="78">
         <v>1591632000</v>
       </c>
       <c r="L231" s="79" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="232" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -20193,10 +20252,10 @@
         <v>0</v>
       </c>
       <c r="C232" s="29" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D232" s="29" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E232" s="28"/>
       <c r="F232" s="28"/>
@@ -20210,13 +20269,13 @@
         <v>1</v>
       </c>
       <c r="J232" s="29" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="K232" s="28">
         <v>1591659000</v>
       </c>
       <c r="L232" s="29" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="233" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
@@ -20227,10 +20286,10 @@
         <v>1</v>
       </c>
       <c r="C233" s="73" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D233" s="72" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E233" s="72"/>
       <c r="F233" s="72"/>
@@ -20244,13 +20303,13 @@
         <v>1</v>
       </c>
       <c r="J233" s="72" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="K233" s="72">
         <v>1592263800</v>
       </c>
       <c r="L233" s="72" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="234" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -20261,10 +20320,10 @@
         <v>1</v>
       </c>
       <c r="C234" s="29" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D234" s="29" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E234" s="28"/>
       <c r="F234" s="28"/>
@@ -20278,13 +20337,13 @@
         <v>1</v>
       </c>
       <c r="J234" s="29" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="K234" s="28">
         <v>1592263800</v>
       </c>
       <c r="L234" s="29" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="235" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -20295,10 +20354,10 @@
         <v>1</v>
       </c>
       <c r="C235" s="29" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D235" s="29" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E235" s="28"/>
       <c r="F235" s="28"/>
@@ -20312,13 +20371,13 @@
         <v>1</v>
       </c>
       <c r="J235" s="29" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K235" s="28">
         <v>1592263800</v>
       </c>
       <c r="L235" s="29" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="236" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -20329,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="C236" s="79" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D236" s="79" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E236" s="78"/>
       <c r="F236" s="78"/>
@@ -20346,13 +20405,13 @@
         <v>1</v>
       </c>
       <c r="J236" s="79" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="K236" s="78">
         <v>1592263800</v>
       </c>
       <c r="L236" s="79" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="237" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -20363,10 +20422,10 @@
         <v>1</v>
       </c>
       <c r="C237" s="79" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D237" s="79" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E237" s="78"/>
       <c r="F237" s="78"/>
@@ -20380,13 +20439,13 @@
         <v>1</v>
       </c>
       <c r="J237" s="79" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="K237" s="78">
         <v>1592263800</v>
       </c>
       <c r="L237" s="79" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="238" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -20397,10 +20456,10 @@
         <v>1</v>
       </c>
       <c r="C238" s="79" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D238" s="79" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E238" s="78"/>
       <c r="F238" s="78"/>
@@ -20414,13 +20473,13 @@
         <v>1</v>
       </c>
       <c r="J238" s="79" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="K238" s="78">
         <v>1592263800</v>
       </c>
       <c r="L238" s="79" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="239" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
@@ -20431,10 +20490,10 @@
         <v>1</v>
       </c>
       <c r="C239" s="82" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D239" s="82" t="s">
         <v>1238</v>
-      </c>
-      <c r="D239" s="82" t="s">
-        <v>1239</v>
       </c>
       <c r="E239" s="81"/>
       <c r="F239" s="81"/>
@@ -20448,13 +20507,13 @@
         <v>1</v>
       </c>
       <c r="J239" s="82" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="K239" s="81">
         <v>1592263800</v>
       </c>
       <c r="L239" s="82" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="240" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.2">
@@ -20465,10 +20524,10 @@
         <v>1</v>
       </c>
       <c r="C240" s="86" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D240" s="86" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E240" s="85"/>
       <c r="F240" s="85"/>
@@ -20482,13 +20541,13 @@
         <v>1</v>
       </c>
       <c r="J240" s="86" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="K240" s="85">
         <v>1592263800</v>
       </c>
       <c r="L240" s="86" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="241" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.2">
@@ -20499,10 +20558,10 @@
         <v>1</v>
       </c>
       <c r="C241" s="86" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D241" s="86" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E241" s="85"/>
       <c r="F241" s="85"/>
@@ -20516,13 +20575,13 @@
         <v>1</v>
       </c>
       <c r="J241" s="86" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="K241" s="85">
         <v>1592263800</v>
       </c>
       <c r="L241" s="86" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="242" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -20533,10 +20592,10 @@
         <v>1</v>
       </c>
       <c r="C242" s="79" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D242" s="79" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E242" s="78"/>
       <c r="F242" s="78"/>
@@ -20550,13 +20609,13 @@
         <v>1</v>
       </c>
       <c r="J242" s="79" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="K242" s="78">
         <v>1592236800</v>
       </c>
       <c r="L242" s="79" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="243" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -20567,10 +20626,10 @@
         <v>1</v>
       </c>
       <c r="C243" s="79" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D243" s="79" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E243" s="78"/>
       <c r="F243" s="78"/>
@@ -20584,13 +20643,13 @@
         <v>1</v>
       </c>
       <c r="J243" s="79" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="K243" s="78">
         <v>1592263800</v>
       </c>
       <c r="L243" s="79" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="244" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -20601,10 +20660,10 @@
         <v>1</v>
       </c>
       <c r="C244" s="29" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D244" s="28" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E244" s="28"/>
       <c r="F244" s="28"/>
@@ -20618,13 +20677,13 @@
         <v>1</v>
       </c>
       <c r="J244" s="28" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="K244" s="28">
         <v>1592841600</v>
       </c>
       <c r="L244" s="28" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="245" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -20635,10 +20694,10 @@
         <v>1</v>
       </c>
       <c r="C245" s="79" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D245" s="79" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E245" s="78"/>
       <c r="F245" s="78"/>
@@ -20652,13 +20711,13 @@
         <v>1</v>
       </c>
       <c r="J245" s="79" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="K245" s="78">
         <v>1592868600</v>
       </c>
       <c r="L245" s="79" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="246" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -20669,10 +20728,10 @@
         <v>1</v>
       </c>
       <c r="C246" s="79" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D246" s="79" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E246" s="78"/>
       <c r="F246" s="78"/>
@@ -20686,13 +20745,13 @@
         <v>1</v>
       </c>
       <c r="J246" s="79" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="K246" s="78">
         <v>1592868600</v>
       </c>
       <c r="L246" s="79" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="247" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -20703,10 +20762,10 @@
         <v>1</v>
       </c>
       <c r="C247" s="79" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D247" s="79" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E247" s="78"/>
       <c r="F247" s="78"/>
@@ -20720,13 +20779,13 @@
         <v>1</v>
       </c>
       <c r="J247" s="79" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="K247" s="78">
         <v>1592868600</v>
       </c>
       <c r="L247" s="79" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
@@ -20737,10 +20796,10 @@
         <v>1</v>
       </c>
       <c r="C248" s="28" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D248" s="28" t="s">
         <v>1288</v>
-      </c>
-      <c r="D248" s="28" t="s">
-        <v>1289</v>
       </c>
       <c r="E248" s="28"/>
       <c r="F248" s="28"/>
@@ -20754,13 +20813,13 @@
         <v>1</v>
       </c>
       <c r="J248" s="28" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="K248" s="28">
         <v>1592868600</v>
       </c>
       <c r="L248" s="28" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="249" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -20771,10 +20830,10 @@
         <v>1</v>
       </c>
       <c r="C249" s="29" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D249" s="29" t="s">
         <v>1298</v>
-      </c>
-      <c r="D249" s="29" t="s">
-        <v>1299</v>
       </c>
       <c r="E249" s="28"/>
       <c r="F249" s="28"/>
@@ -20788,13 +20847,13 @@
         <v>1</v>
       </c>
       <c r="J249" s="29" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K249" s="28">
         <v>1592868600</v>
       </c>
       <c r="L249" s="28" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
@@ -20805,10 +20864,10 @@
         <v>1</v>
       </c>
       <c r="C250" s="30" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D250" s="92" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G250" s="26">
         <v>232</v>
@@ -20820,13 +20879,13 @@
         <v>1</v>
       </c>
       <c r="J250" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K250" s="26">
         <v>1588028400</v>
       </c>
       <c r="L250" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -20837,10 +20896,10 @@
         <v>1</v>
       </c>
       <c r="C251" s="30" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D251" s="92" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G251" s="26">
         <v>233</v>
@@ -20852,13 +20911,13 @@
         <v>1</v>
       </c>
       <c r="J251" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K251" s="26">
         <v>1588028400</v>
       </c>
       <c r="L251" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -20869,10 +20928,10 @@
         <v>1</v>
       </c>
       <c r="C252" s="30" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D252" s="92" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G252" s="26">
         <v>234</v>
@@ -20884,13 +20943,13 @@
         <v>1</v>
       </c>
       <c r="J252" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K252" s="26">
         <v>1588028400</v>
       </c>
       <c r="L252" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
@@ -20901,10 +20960,10 @@
         <v>1</v>
       </c>
       <c r="C253" s="30" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D253" s="92" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="G253" s="26">
         <v>235</v>
@@ -20916,13 +20975,13 @@
         <v>1</v>
       </c>
       <c r="J253" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K253" s="26">
         <v>1588028400</v>
       </c>
       <c r="L253" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -20933,10 +20992,10 @@
         <v>1</v>
       </c>
       <c r="C254" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D254" s="92" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G254" s="26">
         <v>236</v>
@@ -20948,13 +21007,13 @@
         <v>1</v>
       </c>
       <c r="J254" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K254" s="26">
         <v>1588028400</v>
       </c>
       <c r="L254" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -20965,10 +21024,10 @@
         <v>1</v>
       </c>
       <c r="C255" s="30" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D255" s="92" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G255" s="26">
         <v>237</v>
@@ -20980,13 +21039,13 @@
         <v>1</v>
       </c>
       <c r="J255" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K255" s="26">
         <v>1588028400</v>
       </c>
       <c r="L255" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -20997,10 +21056,10 @@
         <v>1</v>
       </c>
       <c r="C256" s="30" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D256" s="92" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="G256" s="26">
         <v>238</v>
@@ -21012,13 +21071,13 @@
         <v>1</v>
       </c>
       <c r="J256" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K256" s="26">
         <v>1588028400</v>
       </c>
       <c r="L256" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
@@ -21029,10 +21088,10 @@
         <v>1</v>
       </c>
       <c r="C257" s="30" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D257" s="92" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G257" s="26">
         <v>239</v>
@@ -21044,13 +21103,13 @@
         <v>1</v>
       </c>
       <c r="J257" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K257" s="26">
         <v>1588028400</v>
       </c>
       <c r="L257" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -21061,10 +21120,10 @@
         <v>1</v>
       </c>
       <c r="C258" s="30" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D258" s="92" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G258" s="26">
         <v>240</v>
@@ -21076,13 +21135,13 @@
         <v>1</v>
       </c>
       <c r="J258" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K258" s="26">
         <v>1588028400</v>
       </c>
       <c r="L258" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -21093,10 +21152,10 @@
         <v>1</v>
       </c>
       <c r="C259" s="30" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D259" s="92" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="G259" s="26">
         <v>241</v>
@@ -21108,13 +21167,13 @@
         <v>1</v>
       </c>
       <c r="J259" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K259" s="26">
         <v>1588028400</v>
       </c>
       <c r="L259" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -21125,10 +21184,10 @@
         <v>1</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D260" s="16" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="G260" s="26">
         <v>246</v>
@@ -21140,13 +21199,13 @@
         <v>1</v>
       </c>
       <c r="J260" s="16" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="K260" s="17">
         <v>1597075200</v>
       </c>
       <c r="L260" s="16" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -21157,10 +21216,10 @@
         <v>1</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D261" s="16" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="G261" s="26">
         <v>247</v>
@@ -21172,13 +21231,13 @@
         <v>1</v>
       </c>
       <c r="J261" s="16" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="K261" s="17">
         <v>1597075200</v>
       </c>
       <c r="L261" s="16" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -21189,10 +21248,10 @@
         <v>1</v>
       </c>
       <c r="C262" s="30" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D262" s="16" t="s">
         <v>1520</v>
-      </c>
-      <c r="D262" s="16" t="s">
-        <v>1521</v>
       </c>
       <c r="G262" s="26">
         <v>245</v>
@@ -21204,13 +21263,13 @@
         <v>1</v>
       </c>
       <c r="J262" s="16" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="K262" s="17">
         <v>1597075200</v>
       </c>
       <c r="L262" s="16" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -21221,10 +21280,10 @@
         <v>1</v>
       </c>
       <c r="C263" s="53" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D263" s="16" t="s">
         <v>1522</v>
-      </c>
-      <c r="D263" s="16" t="s">
-        <v>1523</v>
       </c>
       <c r="G263" s="26">
         <v>245</v>
@@ -21236,13 +21295,13 @@
         <v>1</v>
       </c>
       <c r="J263" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K263" s="17">
         <v>1597075200</v>
       </c>
       <c r="L263" s="16" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -21253,10 +21312,10 @@
         <v>1</v>
       </c>
       <c r="C264" s="30" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D264" s="53" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="G264" s="26">
         <v>250</v>
@@ -21268,13 +21327,13 @@
         <v>1</v>
       </c>
       <c r="J264" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K264" s="26">
         <v>1597707000</v>
       </c>
       <c r="L264" s="26" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -21285,10 +21344,10 @@
         <v>1</v>
       </c>
       <c r="C265" s="26" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D265" s="53" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G265" s="26">
         <v>251</v>
@@ -21300,13 +21359,13 @@
         <v>1</v>
       </c>
       <c r="J265" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K265" s="26">
         <v>1597707000</v>
       </c>
       <c r="L265" s="26" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -21317,10 +21376,10 @@
         <v>1</v>
       </c>
       <c r="C266" s="30" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D266" s="26" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="G266" s="26">
         <v>252</v>
@@ -21332,13 +21391,13 @@
         <v>1</v>
       </c>
       <c r="J266" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K266" s="26">
         <v>1597680000</v>
       </c>
       <c r="L266" s="26" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -21349,10 +21408,10 @@
         <v>1</v>
       </c>
       <c r="C267" s="30" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D267" s="30" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="G267" s="26">
         <v>253</v>
@@ -21364,13 +21423,13 @@
         <v>1</v>
       </c>
       <c r="J267" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K267" s="26">
         <v>1597707000</v>
       </c>
       <c r="L267" s="26" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -21381,10 +21440,10 @@
         <v>1</v>
       </c>
       <c r="C268" s="30" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D268" s="30" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="G268" s="26">
         <v>254</v>
@@ -21396,13 +21455,13 @@
         <v>1</v>
       </c>
       <c r="J268" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K268" s="26">
         <v>1597707000</v>
       </c>
       <c r="L268" s="26" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -21413,10 +21472,10 @@
         <v>1</v>
       </c>
       <c r="C269" s="30" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D269" s="30" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G269" s="26">
         <v>255</v>
@@ -21428,13 +21487,13 @@
         <v>1</v>
       </c>
       <c r="J269" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K269" s="26">
         <v>1597707000</v>
       </c>
       <c r="L269" s="26" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="270" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -21445,10 +21504,10 @@
         <v>1</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D270" s="16" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="E270" s="17"/>
       <c r="F270" s="17"/>
@@ -21462,13 +21521,13 @@
         <v>1</v>
       </c>
       <c r="J270" s="16" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="K270" s="17">
         <v>1598311800</v>
       </c>
       <c r="L270" s="16" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="271" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -21479,10 +21538,10 @@
         <v>1</v>
       </c>
       <c r="C271" s="16" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D271" s="16" t="s">
         <v>1572</v>
-      </c>
-      <c r="D271" s="16" t="s">
-        <v>1573</v>
       </c>
       <c r="E271" s="17"/>
       <c r="F271" s="17"/>
@@ -21496,13 +21555,13 @@
         <v>1</v>
       </c>
       <c r="J271" s="16" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="K271" s="17">
         <v>1598311800</v>
       </c>
       <c r="L271" s="16" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="272" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -21513,10 +21572,10 @@
         <v>1</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D272" s="16" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E272" s="17"/>
       <c r="F272" s="17"/>
@@ -21530,13 +21589,13 @@
         <v>1</v>
       </c>
       <c r="J272" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K272" s="17">
         <v>1598311800</v>
       </c>
       <c r="L272" s="16" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="273" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -21547,10 +21606,10 @@
         <v>1</v>
       </c>
       <c r="C273" s="17" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D273" s="17" t="s">
         <v>1579</v>
-      </c>
-      <c r="D273" s="17" t="s">
-        <v>1580</v>
       </c>
       <c r="E273" s="17"/>
       <c r="F273" s="17"/>
@@ -21564,13 +21623,13 @@
         <v>1</v>
       </c>
       <c r="J273" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K273" s="17">
         <v>1598311800</v>
       </c>
       <c r="L273" s="16" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="274" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -21581,10 +21640,10 @@
         <v>1</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D274" s="16" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E274" s="17"/>
       <c r="F274" s="17"/>
@@ -21598,13 +21657,13 @@
         <v>1</v>
       </c>
       <c r="J274" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K274" s="17">
         <v>1598311800</v>
       </c>
       <c r="L274" s="16" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="275" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -21618,7 +21677,7 @@
         <v>1629</v>
       </c>
       <c r="D275" s="16" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E275" s="17"/>
       <c r="F275" s="17"/>
@@ -21632,13 +21691,13 @@
         <v>1</v>
       </c>
       <c r="J275" s="16" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="K275" s="17">
         <v>1598284800</v>
       </c>
       <c r="L275" s="16" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="276" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -21649,10 +21708,10 @@
         <v>1</v>
       </c>
       <c r="C276" s="16" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D276" s="16" t="s">
         <v>1584</v>
-      </c>
-      <c r="D276" s="16" t="s">
-        <v>1585</v>
       </c>
       <c r="E276" s="17"/>
       <c r="F276" s="17"/>
@@ -21666,13 +21725,13 @@
         <v>1</v>
       </c>
       <c r="J276" s="16" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="K276" s="17">
         <v>1598284800</v>
       </c>
       <c r="L276" s="16" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="277" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -21683,7 +21742,7 @@
         <v>1</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>1653</v>
+        <v>1625</v>
       </c>
       <c r="D277" s="16" t="s">
         <v>1626</v>
@@ -21734,7 +21793,7 @@
         <v>1</v>
       </c>
       <c r="J278" s="16" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="K278" s="17">
         <v>1598889600</v>
@@ -21768,13 +21827,13 @@
         <v>1</v>
       </c>
       <c r="J279" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K279" s="17">
         <v>1598916600</v>
       </c>
       <c r="L279" s="16" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="280" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -21802,13 +21861,13 @@
         <v>1</v>
       </c>
       <c r="J280" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K280" s="17">
         <v>1598916600</v>
       </c>
       <c r="L280" s="16" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="281" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -21836,13 +21895,13 @@
         <v>1</v>
       </c>
       <c r="J281" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K281" s="17">
         <v>1598916600</v>
       </c>
       <c r="L281" s="16" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="282" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -21870,13 +21929,13 @@
         <v>1</v>
       </c>
       <c r="J282" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K282" s="17">
         <v>1598916600</v>
       </c>
       <c r="L282" s="16" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="283" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -21904,13 +21963,13 @@
         <v>1</v>
       </c>
       <c r="J283" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K283" s="17">
         <v>1598916600</v>
       </c>
       <c r="L283" s="16" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="284" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -21921,15 +21980,15 @@
         <v>1</v>
       </c>
       <c r="C284" s="78" t="s">
-        <v>1654</v>
+        <v>1665</v>
       </c>
       <c r="D284" s="78" t="s">
-        <v>1656</v>
+        <v>1666</v>
       </c>
       <c r="E284" s="78"/>
       <c r="F284" s="78"/>
       <c r="G284" s="78">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H284" s="78" t="b">
         <v>1</v>
@@ -21938,13 +21997,13 @@
         <v>1</v>
       </c>
       <c r="J284" s="79" t="s">
-        <v>1160</v>
+        <v>1667</v>
       </c>
       <c r="K284" s="78">
         <v>1599523200</v>
       </c>
       <c r="L284" s="78" t="s">
-        <v>1655</v>
+        <v>1668</v>
       </c>
     </row>
   </sheetData>
@@ -21957,13 +22016,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I688"/>
+  <dimension ref="A1:I689"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C657" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C662" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E692" sqref="E692"/>
+      <selection pane="bottomRight" activeCell="D692" sqref="D692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22116,7 +22175,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>897</v>
@@ -22165,7 +22224,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>899</v>
@@ -22191,7 +22250,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -22214,7 +22273,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -22478,7 +22537,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D21" s="8">
         <v>1583769600</v>
@@ -22559,7 +22618,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -22927,7 +22986,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -23329,7 +23388,7 @@
         <v>40</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>1074</v>
@@ -23341,7 +23400,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -23456,7 +23515,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -23571,7 +23630,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -23674,7 +23733,7 @@
         <v>48</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1062</v>
+        <v>1659</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>1067</v>
@@ -23686,7 +23745,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -24022,7 +24081,7 @@
         <v>882</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>947</v>
+        <v>1654</v>
       </c>
       <c r="E88" s="8">
         <v>2</v>
@@ -24054,7 +24113,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -24100,7 +24159,7 @@
         <v>2</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -24114,7 +24173,7 @@
         <v>882</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>947</v>
+        <v>1655</v>
       </c>
       <c r="E92" s="8">
         <v>2</v>
@@ -24146,7 +24205,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -24183,7 +24242,7 @@
         <v>1062</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E95" s="8">
         <v>2</v>
@@ -24192,7 +24251,7 @@
         <v>2</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -24215,7 +24274,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -24422,7 +24481,7 @@
         <v>2</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -24459,7 +24518,7 @@
         <v>1062</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E107" s="8">
         <v>2</v>
@@ -24468,7 +24527,7 @@
         <v>3</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -24525,10 +24584,10 @@
         <v>60</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E110" s="8">
         <v>2</v>
@@ -24551,7 +24610,7 @@
         <v>1062</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E111" s="8">
         <v>5</v>
@@ -24560,7 +24619,7 @@
         <v>1</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -24882,7 +24941,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="126" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25020,7 +25079,7 @@
         <v>2</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25181,7 +25240,7 @@
         <v>1</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25287,7 +25346,7 @@
         <v>1062</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E143" s="8">
         <v>5</v>
@@ -25296,7 +25355,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25365,7 +25424,7 @@
         <v>1</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="147" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25425,7 +25484,7 @@
         <v>1062</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E149" s="8">
         <v>2</v>
@@ -25434,7 +25493,7 @@
         <v>3</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="150" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25480,7 +25539,7 @@
         <v>1</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="152" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25540,7 +25599,7 @@
         <v>1062</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E154" s="8">
         <v>2</v>
@@ -25549,7 +25608,7 @@
         <v>3</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="155" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25595,7 +25654,7 @@
         <v>1</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="157" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25655,7 +25714,7 @@
         <v>1062</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E159" s="8">
         <v>2</v>
@@ -25664,7 +25723,7 @@
         <v>3</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="160" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25710,7 +25769,7 @@
         <v>1</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="162" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25770,7 +25829,7 @@
         <v>1062</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E164" s="8">
         <v>2</v>
@@ -25779,7 +25838,7 @@
         <v>3</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="165" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25825,7 +25884,7 @@
         <v>1</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="167" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25885,7 +25944,7 @@
         <v>1062</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E169" s="8">
         <v>2</v>
@@ -25894,7 +25953,7 @@
         <v>3</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="170" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25931,7 +25990,7 @@
         <v>1062</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E171" s="8">
         <v>2</v>
@@ -25940,7 +25999,7 @@
         <v>1</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="172" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26046,7 +26105,7 @@
         <v>1062</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E176" s="8">
         <v>2</v>
@@ -26055,7 +26114,7 @@
         <v>3</v>
       </c>
       <c r="G176" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="177" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26092,7 +26151,7 @@
         <v>1062</v>
       </c>
       <c r="D178" s="94" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E178" s="14">
         <v>2</v>
@@ -26101,7 +26160,7 @@
         <v>4</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26138,7 +26197,7 @@
         <v>1062</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E180" s="8">
         <v>2</v>
@@ -26147,7 +26206,7 @@
         <v>1</v>
       </c>
       <c r="G180" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26253,7 +26312,7 @@
         <v>1062</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E185" s="8">
         <v>2</v>
@@ -26262,7 +26321,7 @@
         <v>3</v>
       </c>
       <c r="G185" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="186" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26322,7 +26381,7 @@
         <v>1062</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E188" s="8">
         <v>2</v>
@@ -26331,7 +26390,7 @@
         <v>1</v>
       </c>
       <c r="G188" s="10" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="189" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26437,7 +26496,7 @@
         <v>1062</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E193" s="8">
         <v>2</v>
@@ -26446,7 +26505,7 @@
         <v>3</v>
       </c>
       <c r="G193" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="194" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26483,7 +26542,7 @@
         <v>1062</v>
       </c>
       <c r="D195" s="94" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E195" s="14">
         <v>2</v>
@@ -26492,7 +26551,7 @@
         <v>4</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26503,7 +26562,7 @@
         <v>80</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>947</v>
@@ -26538,7 +26597,7 @@
         <v>1</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26644,7 +26703,7 @@
         <v>1062</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E202" s="8">
         <v>2</v>
@@ -26653,7 +26712,7 @@
         <v>3</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="203" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26745,7 +26804,7 @@
         <v>1</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="207" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26851,7 +26910,7 @@
         <v>1062</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E211" s="8">
         <v>2</v>
@@ -26860,7 +26919,7 @@
         <v>3</v>
       </c>
       <c r="G211" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="212" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26929,7 +26988,7 @@
         <v>1</v>
       </c>
       <c r="G214" s="10" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="215" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -27081,7 +27140,7 @@
         <v>1062</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E221" s="8">
         <v>2</v>
@@ -27090,7 +27149,7 @@
         <v>3</v>
       </c>
       <c r="G221" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="222" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -27196,7 +27255,7 @@
         <v>1062</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E226" s="8">
         <v>2</v>
@@ -27205,7 +27264,7 @@
         <v>2</v>
       </c>
       <c r="G226" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -27251,7 +27310,7 @@
         <v>1</v>
       </c>
       <c r="G228" s="10" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -27357,7 +27416,7 @@
         <v>1062</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E233" s="8">
         <v>2</v>
@@ -27366,7 +27425,7 @@
         <v>3</v>
       </c>
       <c r="G233" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="234" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -27702,7 +27761,7 @@
         <v>1062</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E248" s="8">
         <v>2</v>
@@ -27711,7 +27770,7 @@
         <v>1</v>
       </c>
       <c r="G248" s="10" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="249" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -27849,7 +27908,7 @@
         <v>4</v>
       </c>
       <c r="G254" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="255" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28090,7 +28149,7 @@
         <v>94</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D265" s="10" t="s">
         <v>947</v>
@@ -28125,7 +28184,7 @@
         <v>1</v>
       </c>
       <c r="G266" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="267" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28171,7 +28230,7 @@
         <v>2</v>
       </c>
       <c r="G268" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="269" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28309,7 +28368,7 @@
         <v>1</v>
       </c>
       <c r="G274" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="275" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28424,7 +28483,7 @@
         <v>1</v>
       </c>
       <c r="G279" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="280" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28723,7 +28782,7 @@
         <v>1</v>
       </c>
       <c r="G292" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="293" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28760,7 +28819,7 @@
         <v>1062</v>
       </c>
       <c r="D294" s="10" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E294" s="8">
         <v>2</v>
@@ -28769,7 +28828,7 @@
         <v>2</v>
       </c>
       <c r="G294" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="295" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28884,7 +28943,7 @@
         <v>1</v>
       </c>
       <c r="G299" s="10" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="300" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28990,7 +29049,7 @@
         <v>1062</v>
       </c>
       <c r="D304" s="10" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E304" s="8">
         <v>2</v>
@@ -28999,7 +29058,7 @@
         <v>1</v>
       </c>
       <c r="G304" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="305" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29114,7 +29173,7 @@
         <v>1</v>
       </c>
       <c r="G309" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="310" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29229,7 +29288,7 @@
         <v>1</v>
       </c>
       <c r="G314" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="315" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29344,7 +29403,7 @@
         <v>1</v>
       </c>
       <c r="G319" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="320" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29450,7 +29509,7 @@
         <v>1062</v>
       </c>
       <c r="D324" s="10" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E324" s="8">
         <v>2</v>
@@ -29459,7 +29518,7 @@
         <v>1</v>
       </c>
       <c r="G324" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="325" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29695,7 +29754,7 @@
         <v>1062</v>
       </c>
       <c r="D334" s="10" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E334" s="8">
         <v>2</v>
@@ -29704,7 +29763,7 @@
         <v>1</v>
       </c>
       <c r="G334" s="10" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="335" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29810,7 +29869,7 @@
         <v>1062</v>
       </c>
       <c r="D339" s="10" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E339" s="8">
         <v>2</v>
@@ -29819,7 +29878,7 @@
         <v>1</v>
       </c>
       <c r="G339" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="340" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29980,7 +30039,7 @@
         <v>1</v>
       </c>
       <c r="G346" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="347" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30256,7 +30315,7 @@
         <v>1</v>
       </c>
       <c r="G358" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="359" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30279,7 +30338,7 @@
         <v>1</v>
       </c>
       <c r="G359" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="360" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30302,7 +30361,7 @@
         <v>1</v>
       </c>
       <c r="G360" s="10" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="361" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30313,7 +30372,7 @@
         <v>138</v>
       </c>
       <c r="C361" s="15" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D361" s="15" t="s">
         <v>1067</v>
@@ -30325,7 +30384,7 @@
         <v>1</v>
       </c>
       <c r="G361" s="15" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="362" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30348,7 +30407,7 @@
         <v>1</v>
       </c>
       <c r="G362" s="15" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="363" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30382,10 +30441,10 @@
         <v>138</v>
       </c>
       <c r="C364" s="15" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D364" s="15" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E364" s="14">
         <v>2</v>
@@ -30394,7 +30453,7 @@
         <v>2</v>
       </c>
       <c r="G364" s="15" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="365" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30417,7 +30476,7 @@
         <v>2</v>
       </c>
       <c r="G365" s="15" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="366" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30451,10 +30510,10 @@
         <v>139</v>
       </c>
       <c r="C367" s="15" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D367" s="15" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E367" s="14">
         <v>2</v>
@@ -30463,7 +30522,7 @@
         <v>1</v>
       </c>
       <c r="G367" s="15" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="368" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30486,7 +30545,7 @@
         <v>1</v>
       </c>
       <c r="G368" s="15" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="369" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30520,10 +30579,10 @@
         <v>139</v>
       </c>
       <c r="C370" s="15" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D370" s="15" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E370" s="14">
         <v>2</v>
@@ -30532,7 +30591,7 @@
         <v>2</v>
       </c>
       <c r="G370" s="15" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="371" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30555,7 +30614,7 @@
         <v>2</v>
       </c>
       <c r="G371" s="15" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="372" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30658,10 +30717,10 @@
         <v>142</v>
       </c>
       <c r="C376" s="10" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D376" s="10" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E376" s="8">
         <v>2</v>
@@ -30670,7 +30729,7 @@
         <v>1</v>
       </c>
       <c r="G376" s="10" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="377" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30704,10 +30763,10 @@
         <v>142</v>
       </c>
       <c r="C378" s="10" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D378" s="10" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E378" s="8">
         <v>2</v>
@@ -30716,7 +30775,7 @@
         <v>2</v>
       </c>
       <c r="G378" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="379" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30739,7 +30798,7 @@
         <v>1</v>
       </c>
       <c r="G379" s="15" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="380" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30808,7 +30867,7 @@
         <v>2</v>
       </c>
       <c r="G382" s="15" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="383" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30891,7 +30950,7 @@
         <v>1062</v>
       </c>
       <c r="D386" s="10" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E386" s="8">
         <v>2</v>
@@ -30900,7 +30959,7 @@
         <v>1</v>
       </c>
       <c r="G386" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="387" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30946,7 +31005,7 @@
         <v>2</v>
       </c>
       <c r="G388" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="389" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -31038,7 +31097,7 @@
         <v>1</v>
       </c>
       <c r="G392" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="393" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -31098,7 +31157,7 @@
         <v>1062</v>
       </c>
       <c r="D395" s="10" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E395" s="8">
         <v>2</v>
@@ -31107,7 +31166,7 @@
         <v>2</v>
       </c>
       <c r="G395" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="396" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -31429,7 +31488,7 @@
         <v>1</v>
       </c>
       <c r="G409" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="410" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -31512,7 +31571,7 @@
         <v>1062</v>
       </c>
       <c r="D413" s="10" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E413" s="8">
         <v>2</v>
@@ -31521,7 +31580,7 @@
         <v>2</v>
       </c>
       <c r="G413" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="414" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -31613,7 +31672,7 @@
         <v>1</v>
       </c>
       <c r="G417" s="10" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="418" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -31696,7 +31755,7 @@
         <v>1062</v>
       </c>
       <c r="D421" s="10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E421" s="8">
         <v>2</v>
@@ -31705,7 +31764,7 @@
         <v>2</v>
       </c>
       <c r="G421" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="422" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -32188,7 +32247,7 @@
         <v>1</v>
       </c>
       <c r="G442" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="443" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -32271,7 +32330,7 @@
         <v>1062</v>
       </c>
       <c r="D446" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E446" s="8">
         <v>2</v>
@@ -32280,7 +32339,7 @@
         <v>1</v>
       </c>
       <c r="G446" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="447" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -32648,7 +32707,7 @@
         <v>1</v>
       </c>
       <c r="G462" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="463" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -32740,7 +32799,7 @@
         <v>2</v>
       </c>
       <c r="G466" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="467" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -32832,7 +32891,7 @@
         <v>1</v>
       </c>
       <c r="G470" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="471" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -32915,7 +32974,7 @@
         <v>1062</v>
       </c>
       <c r="D474" s="10" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E474" s="8">
         <v>2</v>
@@ -32924,7 +32983,7 @@
         <v>2</v>
       </c>
       <c r="G474" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="475" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -33257,7 +33316,7 @@
         <v>170</v>
       </c>
       <c r="C489" s="10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D489" s="10" t="s">
         <v>883</v>
@@ -33326,7 +33385,7 @@
         <v>171</v>
       </c>
       <c r="C492" s="10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D492" s="10" t="s">
         <v>883</v>
@@ -33418,7 +33477,7 @@
         <v>173</v>
       </c>
       <c r="C496" s="10" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D496" s="8">
         <v>1</v>
@@ -33430,7 +33489,7 @@
         <v>2</v>
       </c>
       <c r="G496" s="10" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="497" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -33487,7 +33546,7 @@
         <v>176</v>
       </c>
       <c r="C499" s="10" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D499" s="8">
         <v>1</v>
@@ -33510,7 +33569,7 @@
         <v>177</v>
       </c>
       <c r="C500" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D500" s="9">
         <v>0</v>
@@ -33533,7 +33592,7 @@
         <v>178</v>
       </c>
       <c r="C501" s="53" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D501" s="9">
         <v>1</v>
@@ -33545,7 +33604,7 @@
         <v>1</v>
       </c>
       <c r="G501" s="53" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.2">
@@ -33556,7 +33615,7 @@
         <v>178</v>
       </c>
       <c r="C502" s="53" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D502" s="9">
         <v>2</v>
@@ -33568,7 +33627,7 @@
         <v>1</v>
       </c>
       <c r="G502" s="53" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.2">
@@ -33625,7 +33684,7 @@
         <v>180</v>
       </c>
       <c r="C505" s="43" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D505" s="43" t="s">
         <v>883</v>
@@ -33648,7 +33707,7 @@
         <v>180</v>
       </c>
       <c r="C506" s="43" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D506" s="84">
         <v>1</v>
@@ -33660,7 +33719,7 @@
         <v>1</v>
       </c>
       <c r="G506" s="43" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.2">
@@ -33671,7 +33730,7 @@
         <v>180</v>
       </c>
       <c r="C507" s="43" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D507" s="84">
         <v>3</v>
@@ -33683,7 +33742,7 @@
         <v>1</v>
       </c>
       <c r="G507" s="43" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.2">
@@ -33694,7 +33753,7 @@
         <v>181</v>
       </c>
       <c r="C508" s="76" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D508" s="76" t="s">
         <v>883</v>
@@ -33717,7 +33776,7 @@
         <v>181</v>
       </c>
       <c r="C509" s="76" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D509" s="75">
         <v>4</v>
@@ -33729,7 +33788,7 @@
         <v>1</v>
       </c>
       <c r="G509" s="76" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.2">
@@ -33740,7 +33799,7 @@
         <v>182</v>
       </c>
       <c r="C510" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D510" s="15" t="s">
         <v>883</v>
@@ -33763,7 +33822,7 @@
         <v>183</v>
       </c>
       <c r="C511" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D511" s="15" t="s">
         <v>883</v>
@@ -33786,7 +33845,7 @@
         <v>184</v>
       </c>
       <c r="C512" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D512" s="15" t="s">
         <v>883</v>
@@ -33809,7 +33868,7 @@
         <v>185</v>
       </c>
       <c r="C513" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D513" s="15" t="s">
         <v>883</v>
@@ -33832,7 +33891,7 @@
         <v>185</v>
       </c>
       <c r="C514" s="15" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D514" s="14">
         <v>1</v>
@@ -33844,7 +33903,7 @@
         <v>1</v>
       </c>
       <c r="G514" s="15" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.2">
@@ -33855,7 +33914,7 @@
         <v>186</v>
       </c>
       <c r="C515" s="76" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D515" s="76" t="s">
         <v>883</v>
@@ -33867,7 +33926,7 @@
         <v>1</v>
       </c>
       <c r="G515" s="76" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.2">
@@ -33878,7 +33937,7 @@
         <v>187</v>
       </c>
       <c r="C516" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D516" s="15" t="s">
         <v>883</v>
@@ -33901,7 +33960,7 @@
         <v>187</v>
       </c>
       <c r="C517" s="15" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D517" s="14">
         <v>1</v>
@@ -33913,7 +33972,7 @@
         <v>1</v>
       </c>
       <c r="G517" s="15" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.2">
@@ -33924,7 +33983,7 @@
         <v>188</v>
       </c>
       <c r="C518" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D518" s="15" t="s">
         <v>883</v>
@@ -33947,7 +34006,7 @@
         <v>188</v>
       </c>
       <c r="C519" s="15" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D519" s="14">
         <v>1</v>
@@ -33959,7 +34018,7 @@
         <v>1</v>
       </c>
       <c r="G519" s="15" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.2">
@@ -33970,7 +34029,7 @@
         <v>189</v>
       </c>
       <c r="C520" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D520" s="19" t="s">
         <v>883</v>
@@ -33993,7 +34052,7 @@
         <v>189</v>
       </c>
       <c r="C521" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D521" s="77">
         <v>1</v>
@@ -34005,7 +34064,7 @@
         <v>1</v>
       </c>
       <c r="G521" s="19" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.2">
@@ -34016,7 +34075,7 @@
         <v>189</v>
       </c>
       <c r="C522" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D522" s="77">
         <v>2</v>
@@ -34028,7 +34087,7 @@
         <v>1</v>
       </c>
       <c r="G522" s="19" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.2">
@@ -34039,10 +34098,10 @@
         <v>190</v>
       </c>
       <c r="C523" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D523" s="19" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E523" s="77">
         <v>5</v>
@@ -34062,7 +34121,7 @@
         <v>190</v>
       </c>
       <c r="C524" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D524" s="77">
         <v>3</v>
@@ -34074,7 +34133,7 @@
         <v>1</v>
       </c>
       <c r="G524" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.2">
@@ -34085,7 +34144,7 @@
         <v>190</v>
       </c>
       <c r="C525" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D525" s="77">
         <v>6</v>
@@ -34097,7 +34156,7 @@
         <v>1</v>
       </c>
       <c r="G525" s="19" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.2">
@@ -34108,7 +34167,7 @@
         <v>191</v>
       </c>
       <c r="C526" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D526" s="19" t="s">
         <v>883</v>
@@ -34131,7 +34190,7 @@
         <v>191</v>
       </c>
       <c r="C527" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D527" s="77">
         <v>7</v>
@@ -34143,7 +34202,7 @@
         <v>1</v>
       </c>
       <c r="G527" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.2">
@@ -34154,7 +34213,7 @@
         <v>192</v>
       </c>
       <c r="C528" s="89" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D528" s="89" t="s">
         <v>883</v>
@@ -34177,7 +34236,7 @@
         <v>192</v>
       </c>
       <c r="C529" s="89" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D529" s="88">
         <v>1</v>
@@ -34189,7 +34248,7 @@
         <v>1</v>
       </c>
       <c r="G529" s="89" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.2">
@@ -34235,7 +34294,7 @@
         <v>1</v>
       </c>
       <c r="G531" s="43" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.2">
@@ -34258,7 +34317,7 @@
         <v>1</v>
       </c>
       <c r="G532" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.2">
@@ -34281,7 +34340,7 @@
         <v>1</v>
       </c>
       <c r="G533" s="19" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.2">
@@ -34304,7 +34363,7 @@
         <v>2</v>
       </c>
       <c r="G534" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.2">
@@ -34318,7 +34377,7 @@
         <v>1062</v>
       </c>
       <c r="D535" s="19" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E535" s="77">
         <v>2</v>
@@ -34327,7 +34386,7 @@
         <v>2</v>
       </c>
       <c r="G535" s="19" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.2">
@@ -34350,7 +34409,7 @@
         <v>1</v>
       </c>
       <c r="G536" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.2">
@@ -34373,7 +34432,7 @@
         <v>1</v>
       </c>
       <c r="G537" s="19" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.2">
@@ -34396,7 +34455,7 @@
         <v>2</v>
       </c>
       <c r="G538" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.2">
@@ -34410,7 +34469,7 @@
         <v>1062</v>
       </c>
       <c r="D539" s="19" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E539" s="77">
         <v>2</v>
@@ -34419,7 +34478,7 @@
         <v>2</v>
       </c>
       <c r="G539" s="19" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.2">
@@ -34479,7 +34538,7 @@
         <v>882</v>
       </c>
       <c r="D542" s="19" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E542" s="77">
         <v>2</v>
@@ -34488,7 +34547,7 @@
         <v>3</v>
       </c>
       <c r="G542" s="19" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.2">
@@ -34499,7 +34558,7 @@
         <v>198</v>
       </c>
       <c r="C543" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D543" s="15" t="s">
         <v>883</v>
@@ -34522,7 +34581,7 @@
         <v>199</v>
       </c>
       <c r="C544" s="19" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D544" s="19" t="s">
         <v>1067</v>
@@ -34534,7 +34593,7 @@
         <v>1</v>
       </c>
       <c r="G544" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.2">
@@ -34545,7 +34604,7 @@
         <v>199</v>
       </c>
       <c r="C545" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D545" s="19" t="s">
         <v>883</v>
@@ -34568,7 +34627,7 @@
         <v>199</v>
       </c>
       <c r="C546" s="19" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D546" s="19" t="s">
         <v>1068</v>
@@ -34580,7 +34639,7 @@
         <v>2</v>
       </c>
       <c r="G546" s="19" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.2">
@@ -34591,7 +34650,7 @@
         <v>199</v>
       </c>
       <c r="C547" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D547" s="19" t="s">
         <v>883</v>
@@ -34614,7 +34673,7 @@
         <v>200</v>
       </c>
       <c r="C548" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D548" s="19" t="s">
         <v>883</v>
@@ -34649,7 +34708,7 @@
         <v>1</v>
       </c>
       <c r="G549" s="19" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.2">
@@ -34660,7 +34719,7 @@
         <v>200</v>
       </c>
       <c r="C550" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D550" s="19" t="s">
         <v>883</v>
@@ -34683,10 +34742,10 @@
         <v>200</v>
       </c>
       <c r="C551" s="19" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D551" s="19" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E551" s="77">
         <v>2</v>
@@ -34695,7 +34754,7 @@
         <v>2</v>
       </c>
       <c r="G551" s="19" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.2">
@@ -34706,7 +34765,7 @@
         <v>201</v>
       </c>
       <c r="C552" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D552" s="19" t="s">
         <v>883</v>
@@ -34798,7 +34857,7 @@
         <v>203</v>
       </c>
       <c r="C556" s="19" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D556" s="77">
         <v>1</v>
@@ -34810,7 +34869,7 @@
         <v>3</v>
       </c>
       <c r="G556" s="19" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="557" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -34821,7 +34880,7 @@
         <v>204</v>
       </c>
       <c r="C557" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D557" s="8">
         <v>1</v>
@@ -34833,7 +34892,7 @@
         <v>1</v>
       </c>
       <c r="G557" s="10" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="558" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -34844,7 +34903,7 @@
         <v>205</v>
       </c>
       <c r="C558" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D558" s="8">
         <v>1</v>
@@ -34856,7 +34915,7 @@
         <v>1</v>
       </c>
       <c r="G558" s="10" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.2">
@@ -34867,7 +34926,7 @@
         <v>206</v>
       </c>
       <c r="C559" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D559" s="8">
         <v>1</v>
@@ -34879,7 +34938,7 @@
         <v>1</v>
       </c>
       <c r="G559" s="10" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.2">
@@ -34890,7 +34949,7 @@
         <v>207</v>
       </c>
       <c r="C560" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D560" s="8">
         <v>1</v>
@@ -34902,7 +34961,7 @@
         <v>1</v>
       </c>
       <c r="G560" s="10" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.2">
@@ -34913,7 +34972,7 @@
         <v>208</v>
       </c>
       <c r="C561" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D561" s="8">
         <v>1</v>
@@ -34925,7 +34984,7 @@
         <v>1</v>
       </c>
       <c r="G561" s="10" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.2">
@@ -34936,7 +34995,7 @@
         <v>209</v>
       </c>
       <c r="C562" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D562" s="8">
         <v>1</v>
@@ -34948,7 +35007,7 @@
         <v>1</v>
       </c>
       <c r="G562" s="10" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.2">
@@ -34959,7 +35018,7 @@
         <v>210</v>
       </c>
       <c r="C563" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D563" s="8">
         <v>2</v>
@@ -34971,7 +35030,7 @@
         <v>1</v>
       </c>
       <c r="G563" s="10" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.2">
@@ -34982,7 +35041,7 @@
         <v>210</v>
       </c>
       <c r="C564" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D564" s="8">
         <v>1</v>
@@ -34994,7 +35053,7 @@
         <v>2</v>
       </c>
       <c r="G564" s="10" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.2">
@@ -35005,7 +35064,7 @@
         <v>211</v>
       </c>
       <c r="C565" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D565" s="8">
         <v>3</v>
@@ -35017,7 +35076,7 @@
         <v>1</v>
       </c>
       <c r="G565" s="10" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.2">
@@ -35028,7 +35087,7 @@
         <v>211</v>
       </c>
       <c r="C566" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D566" s="8">
         <v>1</v>
@@ -35040,7 +35099,7 @@
         <v>2</v>
       </c>
       <c r="G566" s="10" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.2">
@@ -35051,7 +35110,7 @@
         <v>212</v>
       </c>
       <c r="C567" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D567" s="8">
         <v>4</v>
@@ -35063,7 +35122,7 @@
         <v>1</v>
       </c>
       <c r="G567" s="10" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.2">
@@ -35074,7 +35133,7 @@
         <v>212</v>
       </c>
       <c r="C568" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D568" s="8">
         <v>1</v>
@@ -35086,7 +35145,7 @@
         <v>2</v>
       </c>
       <c r="G568" s="10" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.2">
@@ -35097,7 +35156,7 @@
         <v>213</v>
       </c>
       <c r="C569" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D569" s="8">
         <v>5</v>
@@ -35109,7 +35168,7 @@
         <v>1</v>
       </c>
       <c r="G569" s="10" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.2">
@@ -35120,7 +35179,7 @@
         <v>213</v>
       </c>
       <c r="C570" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D570" s="8">
         <v>1</v>
@@ -35132,7 +35191,7 @@
         <v>2</v>
       </c>
       <c r="G570" s="10" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.2">
@@ -35143,7 +35202,7 @@
         <v>214</v>
       </c>
       <c r="C571" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D571" s="8">
         <v>6</v>
@@ -35155,7 +35214,7 @@
         <v>1</v>
       </c>
       <c r="G571" s="10" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.2">
@@ -35166,7 +35225,7 @@
         <v>214</v>
       </c>
       <c r="C572" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D572" s="8">
         <v>1</v>
@@ -35178,7 +35237,7 @@
         <v>2</v>
       </c>
       <c r="G572" s="10" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.2">
@@ -35189,7 +35248,7 @@
         <v>215</v>
       </c>
       <c r="C573" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D573" s="8">
         <v>7</v>
@@ -35201,7 +35260,7 @@
         <v>1</v>
       </c>
       <c r="G573" s="10" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.2">
@@ -35212,7 +35271,7 @@
         <v>215</v>
       </c>
       <c r="C574" s="53" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D574" s="8">
         <v>1</v>
@@ -35224,7 +35283,7 @@
         <v>2</v>
       </c>
       <c r="G574" s="10" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.2">
@@ -35235,7 +35294,7 @@
         <v>216</v>
       </c>
       <c r="C575" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D575" s="8">
         <v>7</v>
@@ -35247,7 +35306,7 @@
         <v>1</v>
       </c>
       <c r="G575" s="10" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.2">
@@ -35258,7 +35317,7 @@
         <v>216</v>
       </c>
       <c r="C576" s="53" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D576" s="8">
         <v>1</v>
@@ -35270,7 +35329,7 @@
         <v>2</v>
       </c>
       <c r="G576" s="10" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.2">
@@ -35281,7 +35340,7 @@
         <v>217</v>
       </c>
       <c r="C577" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D577" s="8">
         <v>8</v>
@@ -35293,7 +35352,7 @@
         <v>1</v>
       </c>
       <c r="G577" s="10" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.2">
@@ -35304,7 +35363,7 @@
         <v>217</v>
       </c>
       <c r="C578" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D578" s="8">
         <v>1</v>
@@ -35316,7 +35375,7 @@
         <v>2</v>
       </c>
       <c r="G578" s="10" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.2">
@@ -35327,7 +35386,7 @@
         <v>218</v>
       </c>
       <c r="C579" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D579" s="8">
         <v>9</v>
@@ -35339,7 +35398,7 @@
         <v>1</v>
       </c>
       <c r="G579" s="10" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.2">
@@ -35350,7 +35409,7 @@
         <v>218</v>
       </c>
       <c r="C580" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D580" s="8">
         <v>1</v>
@@ -35362,7 +35421,7 @@
         <v>2</v>
       </c>
       <c r="G580" s="10" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.2">
@@ -35373,7 +35432,7 @@
         <v>219</v>
       </c>
       <c r="C581" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D581" s="8">
         <v>10</v>
@@ -35385,7 +35444,7 @@
         <v>1</v>
       </c>
       <c r="G581" s="10" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.2">
@@ -35396,7 +35455,7 @@
         <v>219</v>
       </c>
       <c r="C582" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D582" s="8">
         <v>1</v>
@@ -35408,7 +35467,7 @@
         <v>2</v>
       </c>
       <c r="G582" s="10" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.2">
@@ -35419,7 +35478,7 @@
         <v>220</v>
       </c>
       <c r="C583" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D583" s="8">
         <v>11</v>
@@ -35431,7 +35490,7 @@
         <v>1</v>
       </c>
       <c r="G583" s="10" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.2">
@@ -35442,7 +35501,7 @@
         <v>220</v>
       </c>
       <c r="C584" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D584" s="8">
         <v>1</v>
@@ -35454,7 +35513,7 @@
         <v>2</v>
       </c>
       <c r="G584" s="10" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.2">
@@ -35465,7 +35524,7 @@
         <v>221</v>
       </c>
       <c r="C585" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D585" s="8">
         <v>12</v>
@@ -35477,7 +35536,7 @@
         <v>1</v>
       </c>
       <c r="G585" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.2">
@@ -35488,7 +35547,7 @@
         <v>221</v>
       </c>
       <c r="C586" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D586" s="8">
         <v>1</v>
@@ -35500,7 +35559,7 @@
         <v>2</v>
       </c>
       <c r="G586" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.2">
@@ -35511,7 +35570,7 @@
         <v>222</v>
       </c>
       <c r="C587" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D587" s="8">
         <v>13</v>
@@ -35523,7 +35582,7 @@
         <v>1</v>
       </c>
       <c r="G587" s="10" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.2">
@@ -35534,7 +35593,7 @@
         <v>222</v>
       </c>
       <c r="C588" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D588" s="8">
         <v>1</v>
@@ -35546,7 +35605,7 @@
         <v>2</v>
       </c>
       <c r="G588" s="10" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.2">
@@ -35557,7 +35616,7 @@
         <v>223</v>
       </c>
       <c r="C589" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D589" s="8">
         <v>14</v>
@@ -35569,7 +35628,7 @@
         <v>1</v>
       </c>
       <c r="G589" s="10" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.2">
@@ -35580,7 +35639,7 @@
         <v>223</v>
       </c>
       <c r="C590" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D590" s="8">
         <v>1</v>
@@ -35592,7 +35651,7 @@
         <v>2</v>
       </c>
       <c r="G590" s="10" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.2">
@@ -35603,7 +35662,7 @@
         <v>224</v>
       </c>
       <c r="C591" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D591" s="8">
         <v>15</v>
@@ -35615,7 +35674,7 @@
         <v>1</v>
       </c>
       <c r="G591" s="10" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.2">
@@ -35626,7 +35685,7 @@
         <v>224</v>
       </c>
       <c r="C592" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D592" s="8">
         <v>1</v>
@@ -35638,7 +35697,7 @@
         <v>2</v>
       </c>
       <c r="G592" s="10" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.2">
@@ -35649,7 +35708,7 @@
         <v>225</v>
       </c>
       <c r="C593" s="10" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D593" s="9">
         <v>16</v>
@@ -35661,7 +35720,7 @@
         <v>1</v>
       </c>
       <c r="G593" s="10" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.2">
@@ -35672,7 +35731,7 @@
         <v>225</v>
       </c>
       <c r="C594" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D594" s="8">
         <v>1</v>
@@ -35684,7 +35743,7 @@
         <v>2</v>
       </c>
       <c r="G594" s="10" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.2">
@@ -35695,7 +35754,7 @@
         <v>226</v>
       </c>
       <c r="C595" s="53" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D595" s="9">
         <v>1</v>
@@ -35707,7 +35766,7 @@
         <v>1</v>
       </c>
       <c r="G595" s="10" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H595" s="10"/>
     </row>
@@ -35719,7 +35778,7 @@
         <v>226</v>
       </c>
       <c r="C596" s="53" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D596" s="9">
         <v>5</v>
@@ -35731,7 +35790,7 @@
         <v>2</v>
       </c>
       <c r="G596" s="10" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.2">
@@ -35742,7 +35801,7 @@
         <v>227</v>
       </c>
       <c r="C597" s="53" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D597" s="9">
         <v>1</v>
@@ -35754,7 +35813,7 @@
         <v>1</v>
       </c>
       <c r="G597" s="10" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.2">
@@ -35765,7 +35824,7 @@
         <v>227</v>
       </c>
       <c r="C598" s="53" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D598" s="9">
         <v>7</v>
@@ -35777,7 +35836,7 @@
         <v>2</v>
       </c>
       <c r="G598" s="10" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.2">
@@ -35788,7 +35847,7 @@
         <v>228</v>
       </c>
       <c r="C599" s="53" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D599" s="9">
         <v>1</v>
@@ -35800,7 +35859,7 @@
         <v>1</v>
       </c>
       <c r="G599" s="10" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.2">
@@ -35811,7 +35870,7 @@
         <v>228</v>
       </c>
       <c r="C600" s="53" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D600" s="9">
         <v>9</v>
@@ -35823,7 +35882,7 @@
         <v>2</v>
       </c>
       <c r="G600" s="10" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.2">
@@ -35834,7 +35893,7 @@
         <v>229</v>
       </c>
       <c r="C601" s="53" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D601" s="9">
         <v>12</v>
@@ -35846,7 +35905,7 @@
         <v>1</v>
       </c>
       <c r="G601" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.2">
@@ -35857,7 +35916,7 @@
         <v>229</v>
       </c>
       <c r="C602" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D602" s="9">
         <v>1</v>
@@ -35869,7 +35928,7 @@
         <v>2</v>
       </c>
       <c r="G602" s="10" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.2">
@@ -35880,7 +35939,7 @@
         <v>230</v>
       </c>
       <c r="C603" s="53" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D603" s="9">
         <v>1</v>
@@ -35892,7 +35951,7 @@
         <v>1</v>
       </c>
       <c r="G603" s="10" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.2">
@@ -35903,7 +35962,7 @@
         <v>230</v>
       </c>
       <c r="C604" s="53" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D604" s="9">
         <v>11</v>
@@ -35915,7 +35974,7 @@
         <v>2</v>
       </c>
       <c r="G604" s="10" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.2">
@@ -35926,7 +35985,7 @@
         <v>231</v>
       </c>
       <c r="C605" s="53" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D605" s="9">
         <v>1</v>
@@ -35938,7 +35997,7 @@
         <v>1</v>
       </c>
       <c r="G605" s="10" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.2">
@@ -35949,7 +36008,7 @@
         <v>231</v>
       </c>
       <c r="C606" s="53" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D606" s="9">
         <v>14</v>
@@ -35961,7 +36020,7 @@
         <v>2</v>
       </c>
       <c r="G606" s="10" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.2">
@@ -35972,7 +36031,7 @@
         <v>232</v>
       </c>
       <c r="C607" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D607" s="9">
         <v>1</v>
@@ -35984,7 +36043,7 @@
         <v>1</v>
       </c>
       <c r="G607" s="53" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.2">
@@ -35995,7 +36054,7 @@
         <v>233</v>
       </c>
       <c r="C608" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D608" s="9">
         <v>2</v>
@@ -36007,7 +36066,7 @@
         <v>1</v>
       </c>
       <c r="G608" s="53" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.2">
@@ -36018,7 +36077,7 @@
         <v>234</v>
       </c>
       <c r="C609" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D609" s="9">
         <v>3</v>
@@ -36030,7 +36089,7 @@
         <v>1</v>
       </c>
       <c r="G609" s="53" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.2">
@@ -36041,7 +36100,7 @@
         <v>235</v>
       </c>
       <c r="C610" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D610" s="9">
         <v>4</v>
@@ -36053,7 +36112,7 @@
         <v>1</v>
       </c>
       <c r="G610" s="53" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.2">
@@ -36064,7 +36123,7 @@
         <v>236</v>
       </c>
       <c r="C611" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D611" s="9">
         <v>5</v>
@@ -36076,7 +36135,7 @@
         <v>1</v>
       </c>
       <c r="G611" s="53" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H611" s="3"/>
     </row>
@@ -36088,7 +36147,7 @@
         <v>237</v>
       </c>
       <c r="C612" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D612" s="9">
         <v>6</v>
@@ -36100,7 +36159,7 @@
         <v>1</v>
       </c>
       <c r="G612" s="53" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H612" s="3"/>
     </row>
@@ -36112,7 +36171,7 @@
         <v>238</v>
       </c>
       <c r="C613" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D613" s="9">
         <v>7</v>
@@ -36124,7 +36183,7 @@
         <v>1</v>
       </c>
       <c r="G613" s="53" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H613" s="3"/>
     </row>
@@ -36136,7 +36195,7 @@
         <v>239</v>
       </c>
       <c r="C614" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D614" s="9">
         <v>8</v>
@@ -36148,7 +36207,7 @@
         <v>1</v>
       </c>
       <c r="G614" s="53" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H614" s="3"/>
     </row>
@@ -36160,7 +36219,7 @@
         <v>240</v>
       </c>
       <c r="C615" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D615" s="9">
         <v>9</v>
@@ -36172,7 +36231,7 @@
         <v>1</v>
       </c>
       <c r="G615" s="53" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H615" s="3"/>
     </row>
@@ -36184,7 +36243,7 @@
         <v>241</v>
       </c>
       <c r="C616" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D616" s="9">
         <v>10</v>
@@ -36196,7 +36255,7 @@
         <v>1</v>
       </c>
       <c r="G616" s="53" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H616" s="3"/>
     </row>
@@ -36220,7 +36279,7 @@
         <v>1</v>
       </c>
       <c r="G617" s="10" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.2">
@@ -36243,7 +36302,7 @@
         <v>1</v>
       </c>
       <c r="G618" s="10" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.2">
@@ -36266,7 +36325,7 @@
         <v>1</v>
       </c>
       <c r="G619" s="10" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.2">
@@ -36300,7 +36359,7 @@
         <v>246</v>
       </c>
       <c r="C621" s="10" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D621" s="8">
         <v>1</v>
@@ -36312,7 +36371,7 @@
         <v>1</v>
       </c>
       <c r="G621" s="10" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="622" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -36323,7 +36382,7 @@
         <v>246</v>
       </c>
       <c r="C622" s="10" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D622" s="8">
         <v>3</v>
@@ -36335,7 +36394,7 @@
         <v>1</v>
       </c>
       <c r="G622" s="10" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="623" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -36415,7 +36474,7 @@
         <v>247</v>
       </c>
       <c r="C626" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D626" s="8">
         <v>4</v>
@@ -36427,7 +36486,7 @@
         <v>1</v>
       </c>
       <c r="G626" s="10" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="627" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -36438,7 +36497,7 @@
         <v>247</v>
       </c>
       <c r="C627" s="10" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D627" s="8">
         <v>10</v>
@@ -36450,7 +36509,7 @@
         <v>1</v>
       </c>
       <c r="G627" s="10" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="628" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -36484,19 +36543,19 @@
         <v>248</v>
       </c>
       <c r="C629" s="9" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D629" s="9" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E629" s="9">
+        <v>2</v>
+      </c>
+      <c r="F629" s="9">
+        <v>1</v>
+      </c>
+      <c r="G629" s="9" t="s">
         <v>1535</v>
-      </c>
-      <c r="D629" s="9" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E629" s="9">
-        <v>2</v>
-      </c>
-      <c r="F629" s="9">
-        <v>1</v>
-      </c>
-      <c r="G629" s="9" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.2">
@@ -36507,7 +36566,7 @@
         <v>249</v>
       </c>
       <c r="C630" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D630" s="8">
         <v>20</v>
@@ -36519,7 +36578,7 @@
         <v>1</v>
       </c>
       <c r="G630" s="10" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.2">
@@ -36530,7 +36589,7 @@
         <v>249</v>
       </c>
       <c r="C631" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D631" s="8">
         <v>1</v>
@@ -36542,7 +36601,7 @@
         <v>2</v>
       </c>
       <c r="G631" s="10" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.2">
@@ -36622,7 +36681,7 @@
         <v>253</v>
       </c>
       <c r="C635" s="10" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D635" s="8">
         <v>1</v>
@@ -36645,7 +36704,7 @@
         <v>253</v>
       </c>
       <c r="C636" s="10" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D636" s="8">
         <v>3</v>
@@ -36657,7 +36716,7 @@
         <v>1</v>
       </c>
       <c r="G636" s="10" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.2">
@@ -36737,7 +36796,7 @@
         <v>254</v>
       </c>
       <c r="C640" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D640" s="8">
         <v>4</v>
@@ -36749,7 +36808,7 @@
         <v>1</v>
       </c>
       <c r="G640" s="10" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.2">
@@ -36760,7 +36819,7 @@
         <v>254</v>
       </c>
       <c r="C641" s="10" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D641" s="8">
         <v>7</v>
@@ -36772,7 +36831,7 @@
         <v>1</v>
       </c>
       <c r="G641" s="10" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.2">
@@ -36806,7 +36865,7 @@
         <v>255</v>
       </c>
       <c r="C643" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D643" s="8">
         <v>8</v>
@@ -36818,7 +36877,7 @@
         <v>1</v>
       </c>
       <c r="G643" s="10" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.2">
@@ -36829,7 +36888,7 @@
         <v>255</v>
       </c>
       <c r="C644" s="10" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D644" s="8">
         <v>10</v>
@@ -36841,7 +36900,7 @@
         <v>1</v>
       </c>
       <c r="G644" s="10" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.2">
@@ -36910,282 +36969,282 @@
         <v>1</v>
       </c>
       <c r="G647" s="9" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="648" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648" s="8">
         <v>647</v>
       </c>
-      <c r="B648" s="8">
+      <c r="B648" s="77">
         <v>258</v>
       </c>
-      <c r="C648" s="10" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D648" s="10" t="s">
+      <c r="C648" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D648" s="19" t="s">
         <v>883</v>
       </c>
-      <c r="E648" s="8">
-        <v>2</v>
-      </c>
-      <c r="F648" s="8">
-        <v>1</v>
-      </c>
-      <c r="G648" s="10" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="649" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E648" s="77">
+        <v>2</v>
+      </c>
+      <c r="F648" s="77">
+        <v>1</v>
+      </c>
+      <c r="G648" s="19" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649" s="8">
         <v>648</v>
       </c>
-      <c r="B649" s="8">
+      <c r="B649" s="77">
         <v>258</v>
       </c>
-      <c r="C649" s="10" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D649" s="10" t="s">
+      <c r="C649" s="19" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D649" s="19" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E649" s="77">
+        <v>2</v>
+      </c>
+      <c r="F649" s="77">
+        <v>1</v>
+      </c>
+      <c r="G649" s="19" t="s">
         <v>1567</v>
       </c>
-      <c r="E649" s="8">
-        <v>2</v>
-      </c>
-      <c r="F649" s="8">
-        <v>1</v>
-      </c>
-      <c r="G649" s="10" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="650" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650" s="8">
         <v>649</v>
       </c>
-      <c r="B650" s="8">
+      <c r="B650" s="77">
         <v>258</v>
       </c>
-      <c r="C650" s="10" t="s">
+      <c r="C650" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D650" s="19">
+        <v>1598317200</v>
+      </c>
+      <c r="E650" s="77">
+        <v>3</v>
+      </c>
+      <c r="F650" s="77">
+        <v>1</v>
+      </c>
+      <c r="G650" s="19" t="s">
         <v>1592</v>
       </c>
-      <c r="D650" s="10">
-        <v>1598317200</v>
-      </c>
-      <c r="E650" s="8">
-        <v>3</v>
-      </c>
-      <c r="F650" s="8">
-        <v>1</v>
-      </c>
-      <c r="G650" s="10" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="651" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651" s="8">
         <v>650</v>
       </c>
-      <c r="B651" s="8">
+      <c r="B651" s="77">
         <v>259</v>
       </c>
-      <c r="C651" s="10" t="s">
+      <c r="C651" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D651" s="10" t="s">
+      <c r="D651" s="19" t="s">
         <v>937</v>
       </c>
-      <c r="E651" s="8">
+      <c r="E651" s="77">
         <v>5</v>
       </c>
-      <c r="F651" s="8">
-        <v>1</v>
-      </c>
-      <c r="G651" s="10" t="s">
+      <c r="F651" s="77">
+        <v>1</v>
+      </c>
+      <c r="G651" s="19" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="652" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652" s="8">
         <v>651</v>
       </c>
-      <c r="B652" s="8">
+      <c r="B652" s="77">
         <v>260</v>
       </c>
-      <c r="C652" s="10" t="s">
+      <c r="C652" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D652" s="10" t="s">
+      <c r="D652" s="19" t="s">
         <v>937</v>
       </c>
-      <c r="E652" s="8">
+      <c r="E652" s="77">
         <v>5</v>
       </c>
-      <c r="F652" s="8">
-        <v>1</v>
-      </c>
-      <c r="G652" s="10" t="s">
+      <c r="F652" s="77">
+        <v>1</v>
+      </c>
+      <c r="G652" s="19" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="653" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653" s="8">
         <v>652</v>
       </c>
-      <c r="B653" s="8">
+      <c r="B653" s="77">
         <v>261</v>
       </c>
-      <c r="C653" s="10" t="s">
+      <c r="C653" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D653" s="10" t="s">
+      <c r="D653" s="19" t="s">
         <v>937</v>
       </c>
-      <c r="E653" s="8">
-        <v>2</v>
-      </c>
-      <c r="F653" s="8">
-        <v>1</v>
-      </c>
-      <c r="G653" s="10" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="654" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E653" s="77">
+        <v>2</v>
+      </c>
+      <c r="F653" s="77">
+        <v>1</v>
+      </c>
+      <c r="G653" s="19" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654" s="8">
         <v>653</v>
       </c>
-      <c r="B654" s="8">
+      <c r="B654" s="77">
         <v>262</v>
       </c>
-      <c r="C654" s="10" t="s">
+      <c r="C654" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D654" s="10" t="s">
+      <c r="D654" s="19" t="s">
         <v>937</v>
       </c>
-      <c r="E654" s="8">
+      <c r="E654" s="77">
         <v>5</v>
       </c>
-      <c r="F654" s="8">
-        <v>1</v>
-      </c>
-      <c r="G654" s="10" t="s">
+      <c r="F654" s="77">
+        <v>1</v>
+      </c>
+      <c r="G654" s="19" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="655" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655" s="8">
         <v>654</v>
       </c>
-      <c r="B655" s="8">
+      <c r="B655" s="77">
         <v>263</v>
       </c>
-      <c r="C655" s="10" t="s">
+      <c r="C655" s="19" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D655" s="19" t="s">
+        <v>937</v>
+      </c>
+      <c r="E655" s="77">
+        <v>2</v>
+      </c>
+      <c r="F655" s="77">
+        <v>1</v>
+      </c>
+      <c r="G655" s="19" t="s">
         <v>1589</v>
       </c>
-      <c r="D655" s="10" t="s">
-        <v>937</v>
-      </c>
-      <c r="E655" s="8">
-        <v>2</v>
-      </c>
-      <c r="F655" s="8">
-        <v>1</v>
-      </c>
-      <c r="G655" s="10" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="656" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656" s="8">
         <v>655</v>
       </c>
-      <c r="B656" s="8">
+      <c r="B656" s="77">
         <v>264</v>
       </c>
-      <c r="C656" s="10" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D656" s="10" t="s">
+      <c r="C656" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D656" s="19" t="s">
         <v>937</v>
       </c>
-      <c r="E656" s="8">
-        <v>2</v>
-      </c>
-      <c r="F656" s="8">
-        <v>1</v>
-      </c>
-      <c r="G656" s="10" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="657" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E656" s="77">
+        <v>2</v>
+      </c>
+      <c r="F656" s="77">
+        <v>1</v>
+      </c>
+      <c r="G656" s="19" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657" s="8">
         <v>656</v>
       </c>
-      <c r="B657" s="8">
+      <c r="B657" s="77">
         <v>264</v>
       </c>
-      <c r="C657" s="10" t="s">
+      <c r="C657" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D657" s="10" t="s">
+      <c r="D657" s="19" t="s">
         <v>937</v>
       </c>
-      <c r="E657" s="8">
+      <c r="E657" s="77">
         <v>5</v>
       </c>
-      <c r="F657" s="8">
-        <v>2</v>
-      </c>
-      <c r="G657" s="10" t="s">
+      <c r="F657" s="77">
+        <v>2</v>
+      </c>
+      <c r="G657" s="19" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="658" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658" s="8">
         <v>657</v>
       </c>
-      <c r="B658" s="8">
+      <c r="B658" s="77">
         <v>265</v>
       </c>
-      <c r="C658" s="10" t="s">
+      <c r="C658" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D658" s="10" t="s">
+      <c r="D658" s="19" t="s">
         <v>937</v>
       </c>
-      <c r="E658" s="8">
+      <c r="E658" s="77">
         <v>5</v>
       </c>
-      <c r="F658" s="8">
-        <v>1</v>
-      </c>
-      <c r="G658" s="10" t="s">
+      <c r="F658" s="77">
+        <v>1</v>
+      </c>
+      <c r="G658" s="19" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="659" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659" s="8">
         <v>658</v>
       </c>
-      <c r="B659" s="8">
+      <c r="B659" s="77">
         <v>265</v>
       </c>
-      <c r="C659" s="10" t="s">
+      <c r="C659" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D659" s="10" t="s">
+      <c r="D659" s="19" t="s">
         <v>937</v>
       </c>
-      <c r="E659" s="8">
-        <v>2</v>
-      </c>
-      <c r="F659" s="8">
-        <v>2</v>
-      </c>
-      <c r="G659" s="10" t="s">
+      <c r="E659" s="77">
+        <v>2</v>
+      </c>
+      <c r="F659" s="77">
+        <v>2</v>
+      </c>
+      <c r="G659" s="19" t="s">
         <v>1652</v>
       </c>
     </row>
@@ -37235,602 +37294,602 @@
         <v>955</v>
       </c>
     </row>
-    <row r="662" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662" s="8">
         <v>661</v>
       </c>
-      <c r="B662" s="8">
+      <c r="B662" s="14">
         <v>267</v>
       </c>
-      <c r="C662" s="10" t="s">
+      <c r="C662" s="15" t="s">
         <v>1639</v>
       </c>
-      <c r="D662" s="8">
+      <c r="D662" s="14">
         <v>0</v>
       </c>
-      <c r="E662" s="8">
-        <v>2</v>
-      </c>
-      <c r="F662" s="8">
-        <v>1</v>
-      </c>
-      <c r="G662" s="10" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="663" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E662" s="14">
+        <v>2</v>
+      </c>
+      <c r="F662" s="14">
+        <v>1</v>
+      </c>
+      <c r="G662" s="15" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663" s="8">
         <v>662</v>
       </c>
-      <c r="B663" s="8">
+      <c r="B663" s="14">
         <v>268</v>
       </c>
-      <c r="C663" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D663" s="8">
-        <v>1</v>
-      </c>
-      <c r="E663" s="8">
-        <v>2</v>
-      </c>
-      <c r="F663" s="8">
-        <v>1</v>
-      </c>
-      <c r="G663" s="10" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="664" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C663" s="15" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D663" s="14">
+        <v>1</v>
+      </c>
+      <c r="E663" s="14">
+        <v>2</v>
+      </c>
+      <c r="F663" s="14">
+        <v>1</v>
+      </c>
+      <c r="G663" s="15" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664" s="8">
         <v>663</v>
       </c>
-      <c r="B664" s="8">
+      <c r="B664" s="14">
         <v>269</v>
       </c>
-      <c r="C664" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D664" s="8">
-        <v>2</v>
-      </c>
-      <c r="E664" s="8">
-        <v>2</v>
-      </c>
-      <c r="F664" s="8">
-        <v>1</v>
-      </c>
-      <c r="G664" s="10" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="665" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C664" s="15" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D664" s="14">
+        <v>2</v>
+      </c>
+      <c r="E664" s="14">
+        <v>2</v>
+      </c>
+      <c r="F664" s="14">
+        <v>1</v>
+      </c>
+      <c r="G664" s="15" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665" s="8">
         <v>664</v>
       </c>
-      <c r="B665" s="8">
+      <c r="B665" s="14">
         <v>270</v>
       </c>
-      <c r="C665" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D665" s="8">
+      <c r="C665" s="15" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D665" s="14">
         <v>3</v>
       </c>
-      <c r="E665" s="8">
-        <v>2</v>
-      </c>
-      <c r="F665" s="8">
-        <v>1</v>
-      </c>
-      <c r="G665" s="10" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="666" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E665" s="14">
+        <v>2</v>
+      </c>
+      <c r="F665" s="14">
+        <v>1</v>
+      </c>
+      <c r="G665" s="15" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666" s="8">
         <v>665</v>
       </c>
-      <c r="B666" s="8">
+      <c r="B666" s="14">
         <v>271</v>
       </c>
-      <c r="C666" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D666" s="8">
+      <c r="C666" s="15" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D666" s="14">
         <v>4</v>
       </c>
-      <c r="E666" s="8">
-        <v>2</v>
-      </c>
-      <c r="F666" s="8">
-        <v>1</v>
-      </c>
-      <c r="G666" s="10" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="667" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E666" s="14">
+        <v>2</v>
+      </c>
+      <c r="F666" s="14">
+        <v>1</v>
+      </c>
+      <c r="G666" s="15" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667" s="8">
         <v>666</v>
       </c>
-      <c r="B667" s="8">
+      <c r="B667" s="14">
         <v>272</v>
       </c>
-      <c r="C667" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D667" s="8">
+      <c r="C667" s="15" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D667" s="14">
         <v>5</v>
       </c>
-      <c r="E667" s="8">
-        <v>2</v>
-      </c>
-      <c r="F667" s="8">
-        <v>1</v>
-      </c>
-      <c r="G667" s="10" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="668" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E667" s="14">
+        <v>2</v>
+      </c>
+      <c r="F667" s="14">
+        <v>1</v>
+      </c>
+      <c r="G667" s="15" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668" s="8">
         <v>667</v>
       </c>
-      <c r="B668" s="8">
+      <c r="B668" s="14">
         <v>273</v>
       </c>
-      <c r="C668" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D668" s="8">
+      <c r="C668" s="15" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D668" s="14">
         <v>6</v>
       </c>
-      <c r="E668" s="8">
-        <v>2</v>
-      </c>
-      <c r="F668" s="8">
-        <v>1</v>
-      </c>
-      <c r="G668" s="10" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="669" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E668" s="14">
+        <v>2</v>
+      </c>
+      <c r="F668" s="14">
+        <v>1</v>
+      </c>
+      <c r="G668" s="15" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A669" s="8">
         <v>668</v>
       </c>
-      <c r="B669" s="8">
+      <c r="B669" s="14">
         <v>274</v>
       </c>
-      <c r="C669" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D669" s="8">
+      <c r="C669" s="15" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D669" s="14">
         <v>7</v>
       </c>
-      <c r="E669" s="8">
-        <v>2</v>
-      </c>
-      <c r="F669" s="8">
-        <v>1</v>
-      </c>
-      <c r="G669" s="10" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="670" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E669" s="14">
+        <v>2</v>
+      </c>
+      <c r="F669" s="14">
+        <v>1</v>
+      </c>
+      <c r="G669" s="15" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670" s="8">
         <v>669</v>
       </c>
-      <c r="B670" s="8">
+      <c r="B670" s="14">
         <v>275</v>
       </c>
-      <c r="C670" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D670" s="8">
+      <c r="C670" s="15" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D670" s="14">
         <v>8</v>
       </c>
-      <c r="E670" s="8">
-        <v>2</v>
-      </c>
-      <c r="F670" s="8">
-        <v>1</v>
-      </c>
-      <c r="G670" s="10" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="671" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E670" s="14">
+        <v>2</v>
+      </c>
+      <c r="F670" s="14">
+        <v>1</v>
+      </c>
+      <c r="G670" s="15" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A671" s="8">
         <v>670</v>
       </c>
-      <c r="B671" s="8">
+      <c r="B671" s="14">
         <v>276</v>
       </c>
-      <c r="C671" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D671" s="8">
+      <c r="C671" s="15" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D671" s="14">
         <v>9</v>
       </c>
-      <c r="E671" s="8">
-        <v>2</v>
-      </c>
-      <c r="F671" s="8">
-        <v>1</v>
-      </c>
-      <c r="G671" s="10" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="672" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E671" s="14">
+        <v>2</v>
+      </c>
+      <c r="F671" s="14">
+        <v>1</v>
+      </c>
+      <c r="G671" s="15" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672" s="8">
         <v>671</v>
       </c>
-      <c r="B672" s="8">
+      <c r="B672" s="14">
         <v>277</v>
       </c>
-      <c r="C672" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D672" s="8">
+      <c r="C672" s="15" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D672" s="14">
         <v>10</v>
       </c>
-      <c r="E672" s="8">
-        <v>2</v>
-      </c>
-      <c r="F672" s="8">
-        <v>1</v>
-      </c>
-      <c r="G672" s="10" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="673" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E672" s="14">
+        <v>2</v>
+      </c>
+      <c r="F672" s="14">
+        <v>1</v>
+      </c>
+      <c r="G672" s="15" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673" s="8">
         <v>672</v>
       </c>
-      <c r="B673" s="8">
+      <c r="B673" s="14">
         <v>278</v>
       </c>
-      <c r="C673" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D673" s="8">
+      <c r="C673" s="15" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D673" s="14">
         <v>11</v>
       </c>
-      <c r="E673" s="8">
-        <v>2</v>
-      </c>
-      <c r="F673" s="8">
-        <v>1</v>
-      </c>
-      <c r="G673" s="10" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="674" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E673" s="14">
+        <v>2</v>
+      </c>
+      <c r="F673" s="14">
+        <v>1</v>
+      </c>
+      <c r="G673" s="15" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674" s="8">
         <v>673</v>
       </c>
-      <c r="B674" s="8">
+      <c r="B674" s="14">
         <v>279</v>
       </c>
-      <c r="C674" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D674" s="8">
+      <c r="C674" s="15" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D674" s="14">
         <v>12</v>
       </c>
-      <c r="E674" s="8">
-        <v>2</v>
-      </c>
-      <c r="F674" s="8">
-        <v>1</v>
-      </c>
-      <c r="G674" s="10" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="675" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E674" s="14">
+        <v>2</v>
+      </c>
+      <c r="F674" s="14">
+        <v>1</v>
+      </c>
+      <c r="G674" s="15" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675" s="8">
         <v>674</v>
       </c>
-      <c r="B675" s="8">
+      <c r="B675" s="77">
         <v>280</v>
       </c>
-      <c r="C675" s="10" t="s">
+      <c r="C675" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D675" s="10" t="s">
+      <c r="D675" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="E675" s="8">
-        <v>2</v>
-      </c>
-      <c r="F675" s="8">
-        <v>2</v>
-      </c>
-      <c r="G675" s="10" t="s">
+      <c r="E675" s="77">
+        <v>2</v>
+      </c>
+      <c r="F675" s="77">
+        <v>2</v>
+      </c>
+      <c r="G675" s="19" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="676" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676" s="8">
         <v>675</v>
       </c>
-      <c r="B676" s="8">
+      <c r="B676" s="77">
         <v>280</v>
       </c>
-      <c r="C676" s="10" t="s">
+      <c r="C676" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D676" s="10" t="s">
+      <c r="D676" s="19" t="s">
         <v>891</v>
       </c>
-      <c r="E676" s="8">
-        <v>2</v>
-      </c>
-      <c r="F676" s="8">
+      <c r="E676" s="77">
+        <v>2</v>
+      </c>
+      <c r="F676" s="77">
         <v>3</v>
       </c>
-      <c r="G676" s="10" t="s">
+      <c r="G676" s="19" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="677" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677" s="8">
         <v>676</v>
       </c>
-      <c r="B677" s="8">
+      <c r="B677" s="77">
         <v>281</v>
       </c>
-      <c r="C677" s="10" t="s">
+      <c r="C677" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D677" s="10" t="s">
+      <c r="D677" s="19" t="s">
         <v>937</v>
       </c>
-      <c r="E677" s="8">
+      <c r="E677" s="77">
         <v>5</v>
       </c>
-      <c r="F677" s="8">
-        <v>1</v>
-      </c>
-      <c r="G677" s="10" t="s">
+      <c r="F677" s="77">
+        <v>1</v>
+      </c>
+      <c r="G677" s="19" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="678" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678" s="8">
         <v>677</v>
       </c>
-      <c r="B678" s="8">
+      <c r="B678" s="77">
         <v>282</v>
       </c>
-      <c r="C678" s="10" t="s">
+      <c r="C678" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D678" s="10" t="s">
+      <c r="D678" s="53" t="s">
         <v>1637</v>
       </c>
-      <c r="E678" s="8">
-        <v>2</v>
-      </c>
-      <c r="F678" s="8">
-        <v>1</v>
-      </c>
-      <c r="G678" s="10" t="s">
+      <c r="E678" s="9">
+        <v>2</v>
+      </c>
+      <c r="F678" s="9">
+        <v>1</v>
+      </c>
+      <c r="G678" s="53" t="s">
         <v>1638</v>
       </c>
     </row>
-    <row r="679" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679" s="8">
         <v>678</v>
       </c>
-      <c r="B679" s="8">
+      <c r="B679" s="77">
         <v>283</v>
       </c>
-      <c r="C679" s="10" t="s">
+      <c r="C679" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D679" s="10" t="s">
+      <c r="D679" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="E679" s="8">
-        <v>2</v>
-      </c>
-      <c r="F679" s="8">
-        <v>1</v>
-      </c>
-      <c r="G679" s="10" t="s">
+      <c r="E679" s="77">
+        <v>2</v>
+      </c>
+      <c r="F679" s="77">
+        <v>1</v>
+      </c>
+      <c r="G679" s="19" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="680" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680" s="8">
         <v>679</v>
       </c>
-      <c r="B680" s="8">
+      <c r="B680" s="77">
         <v>283</v>
       </c>
-      <c r="C680" s="10" t="s">
+      <c r="C680" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D680" s="10" t="s">
+      <c r="D680" s="19" t="s">
         <v>891</v>
       </c>
-      <c r="E680" s="8">
-        <v>2</v>
-      </c>
-      <c r="F680" s="8">
-        <v>2</v>
-      </c>
-      <c r="G680" s="10" t="s">
+      <c r="E680" s="77">
+        <v>2</v>
+      </c>
+      <c r="F680" s="77">
+        <v>2</v>
+      </c>
+      <c r="G680" s="19" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="681" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681" s="8">
         <v>680</v>
       </c>
-      <c r="B681" s="8">
+      <c r="B681" s="77">
         <v>284</v>
       </c>
-      <c r="C681" s="10" t="s">
+      <c r="C681" s="19" t="s">
         <v>1641</v>
       </c>
-      <c r="D681" s="8">
-        <v>1</v>
-      </c>
-      <c r="E681" s="8">
+      <c r="D681" s="9">
+        <v>1</v>
+      </c>
+      <c r="E681" s="9">
         <v>3</v>
       </c>
-      <c r="F681" s="8">
+      <c r="F681" s="9">
         <v>1</v>
       </c>
       <c r="G681" s="10" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="682" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682" s="8">
         <v>681</v>
       </c>
-      <c r="B682" s="8">
+      <c r="B682" s="77">
         <v>284</v>
       </c>
-      <c r="C682" s="10" t="s">
+      <c r="C682" s="19" t="s">
         <v>1642</v>
       </c>
-      <c r="D682" s="8">
+      <c r="D682" s="9">
         <v>3</v>
       </c>
-      <c r="E682" s="8">
+      <c r="E682" s="9">
         <v>4</v>
       </c>
-      <c r="F682" s="8">
+      <c r="F682" s="9">
         <v>1</v>
       </c>
       <c r="G682" s="10" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="683" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683" s="8">
         <v>682</v>
       </c>
-      <c r="B683" s="8">
+      <c r="B683" s="9">
         <v>285</v>
       </c>
-      <c r="C683" s="10" t="s">
+      <c r="C683" s="19" t="s">
         <v>1640</v>
       </c>
-      <c r="D683" s="8">
+      <c r="D683" s="9">
         <v>4</v>
       </c>
-      <c r="E683" s="8">
+      <c r="E683" s="9">
         <v>3</v>
       </c>
-      <c r="F683" s="8">
+      <c r="F683" s="9">
         <v>1</v>
       </c>
       <c r="G683" s="10" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="684" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684" s="8">
         <v>683</v>
       </c>
-      <c r="B684" s="8">
+      <c r="B684" s="9">
         <v>285</v>
       </c>
-      <c r="C684" s="10" t="s">
+      <c r="C684" s="19" t="s">
         <v>1640</v>
       </c>
-      <c r="D684" s="8">
+      <c r="D684" s="9">
         <v>6</v>
       </c>
-      <c r="E684" s="8">
+      <c r="E684" s="9">
         <v>4</v>
       </c>
-      <c r="F684" s="8">
+      <c r="F684" s="9">
         <v>1</v>
       </c>
       <c r="G684" s="10" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="685" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685" s="8">
         <v>684</v>
       </c>
-      <c r="B685" s="8">
+      <c r="B685" s="9">
         <v>286</v>
       </c>
-      <c r="C685" s="10" t="s">
+      <c r="C685" s="19" t="s">
         <v>1641</v>
       </c>
-      <c r="D685" s="8">
+      <c r="D685" s="9">
         <v>7</v>
       </c>
-      <c r="E685" s="8">
+      <c r="E685" s="9">
         <v>3</v>
       </c>
-      <c r="F685" s="8">
+      <c r="F685" s="9">
         <v>1</v>
       </c>
       <c r="G685" s="10" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="686" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686" s="8">
         <v>685</v>
       </c>
-      <c r="B686" s="8">
+      <c r="B686" s="9">
         <v>286</v>
       </c>
-      <c r="C686" s="10" t="s">
+      <c r="C686" s="53" t="s">
         <v>1642</v>
       </c>
-      <c r="D686" s="8">
+      <c r="D686" s="9">
         <v>10</v>
       </c>
-      <c r="E686" s="8">
+      <c r="E686" s="9">
         <v>4</v>
       </c>
-      <c r="F686" s="8">
+      <c r="F686" s="9">
         <v>1</v>
       </c>
       <c r="G686" s="10" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A687" s="8">
         <v>686</v>
       </c>
-      <c r="B687" s="77">
+      <c r="B687" s="8">
         <v>287</v>
       </c>
-      <c r="C687" s="19" t="s">
-        <v>882</v>
-      </c>
-      <c r="D687" s="19" t="s">
-        <v>887</v>
-      </c>
-      <c r="E687" s="77">
-        <v>2</v>
-      </c>
-      <c r="F687" s="77">
-        <v>1</v>
-      </c>
-      <c r="G687" s="19" t="s">
-        <v>940</v>
+      <c r="C687" s="10" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D687" s="10" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E687" s="8">
+        <v>2</v>
+      </c>
+      <c r="F687" s="8">
+        <v>1</v>
+      </c>
+      <c r="G687" s="10" t="s">
+        <v>1664</v>
       </c>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.2">
@@ -37838,21 +37897,44 @@
         <v>687</v>
       </c>
       <c r="B688" s="77">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C688" s="19" t="s">
         <v>882</v>
       </c>
       <c r="D688" s="19" t="s">
+        <v>887</v>
+      </c>
+      <c r="E688" s="77">
+        <v>2</v>
+      </c>
+      <c r="F688" s="77">
+        <v>1</v>
+      </c>
+      <c r="G688" s="19" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A689" s="8">
+        <v>688</v>
+      </c>
+      <c r="B689" s="77">
+        <v>288</v>
+      </c>
+      <c r="C689" s="19" t="s">
+        <v>882</v>
+      </c>
+      <c r="D689" s="19" t="s">
         <v>891</v>
       </c>
-      <c r="E688" s="77">
-        <v>2</v>
-      </c>
-      <c r="F688" s="77">
-        <v>2</v>
-      </c>
-      <c r="G688" s="19" t="s">
+      <c r="E689" s="77">
+        <v>2</v>
+      </c>
+      <c r="F689" s="77">
+        <v>2</v>
+      </c>
+      <c r="G689" s="19" t="s">
         <v>936</v>
       </c>
     </row>
@@ -37865,10 +37947,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37909,13 +37991,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1079</v>
+        <v>1658</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>914</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -37932,13 +38014,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>914</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -37955,13 +38037,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>914</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -37978,13 +38060,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>914</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -38001,13 +38083,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>914</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -38016,7 +38098,30 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1566</v>
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="93">
+        <v>6</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>1657</v>
       </c>
     </row>
   </sheetData>
@@ -38107,12 +38212,12 @@
         <v>882</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B8" t="s">
         <v>1052</v>
